--- a/Ethereum/Cryptopunk Sales and Traders/CryptoPunks Sales.xlsx
+++ b/Ethereum/Cryptopunk Sales and Traders/CryptoPunks Sales.xlsx
@@ -402,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I794"/>
+  <dimension ref="A1:I804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -457,7 +457,7 @@
         <v>4376.13</v>
       </c>
       <c r="G2">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H2">
         <v>1255.25</v>
@@ -486,7 +486,7 @@
         <v>2587.08</v>
       </c>
       <c r="G3">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H3">
         <v>275.94</v>
@@ -515,7 +515,7 @@
         <v>2490.183333333</v>
       </c>
       <c r="G4">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H4">
         <v>297.53</v>
@@ -544,7 +544,7 @@
         <v>3150.045</v>
       </c>
       <c r="G5">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H5">
         <v>266.25</v>
@@ -573,7 +573,7 @@
         <v>4189.094</v>
       </c>
       <c r="G6">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H6">
         <v>378.93</v>
@@ -602,7 +602,7 @@
         <v>3669.19</v>
       </c>
       <c r="G7">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H7">
         <v>138.245</v>
@@ -631,7 +631,7 @@
         <v>3210.255714286</v>
       </c>
       <c r="G8">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H8">
         <v>228.325</v>
@@ -660,7 +660,7 @@
         <v>2858.09625</v>
       </c>
       <c r="G9">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H9">
         <v>196.49</v>
@@ -689,7 +689,7 @@
         <v>4192.494444444</v>
       </c>
       <c r="G10">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H10">
         <v>147.035</v>
@@ -718,7 +718,7 @@
         <v>4043.463</v>
       </c>
       <c r="G11">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H11">
         <v>199.8</v>
@@ -747,7 +747,7 @@
         <v>5530.364545455</v>
       </c>
       <c r="G12">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H12">
         <v>299.28</v>
@@ -776,7 +776,7 @@
         <v>5614.97</v>
       </c>
       <c r="G13">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H13">
         <v>150.42</v>
@@ -805,7 +805,7 @@
         <v>5320.699230769</v>
       </c>
       <c r="G14">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H14">
         <v>262.87</v>
@@ -834,7 +834,7 @@
         <v>5274.192857143</v>
       </c>
       <c r="G15">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H15">
         <v>208.37</v>
@@ -863,7 +863,7 @@
         <v>6522.01</v>
       </c>
       <c r="G16">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H16">
         <v>224</v>
@@ -892,7 +892,7 @@
         <v>7397.6575</v>
       </c>
       <c r="G17">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H17">
         <v>236.47</v>
@@ -921,7 +921,7 @@
         <v>8493.345294118</v>
       </c>
       <c r="G18">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H18">
         <v>204.34</v>
@@ -950,7 +950,7 @@
         <v>8621.147222222</v>
       </c>
       <c r="G19">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H19">
         <v>310.44</v>
@@ -979,7 +979,7 @@
         <v>9900.704736842001</v>
       </c>
       <c r="G20">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H20">
         <v>278.45</v>
@@ -1008,7 +1008,7 @@
         <v>9729.249</v>
       </c>
       <c r="G21">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H21">
         <v>246.69</v>
@@ -1037,7 +1037,7 @@
         <v>10257.898571429</v>
       </c>
       <c r="G22">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H22">
         <v>303.6</v>
@@ -1066,7 +1066,7 @@
         <v>11200.626363636</v>
       </c>
       <c r="G23">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H23">
         <v>339.47</v>
@@ -1095,7 +1095,7 @@
         <v>11533.449565217</v>
       </c>
       <c r="G24">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H24">
         <v>377.01</v>
@@ -1124,7 +1124,7 @@
         <v>11233.592083333</v>
       </c>
       <c r="G25">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H25">
         <v>332.12</v>
@@ -1153,7 +1153,7 @@
         <v>10820.976</v>
       </c>
       <c r="G26">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H26">
         <v>294.72</v>
@@ -1182,7 +1182,7 @@
         <v>11012.090769231</v>
       </c>
       <c r="G27">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H27">
         <v>356.46</v>
@@ -1211,7 +1211,7 @@
         <v>10737.043703704</v>
       </c>
       <c r="G28">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H28">
         <v>443.765</v>
@@ -1240,7 +1240,7 @@
         <v>10378.337142857</v>
       </c>
       <c r="G29">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H29">
         <v>346.63</v>
@@ -1269,7 +1269,7 @@
         <v>10033.415862069</v>
       </c>
       <c r="G30">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H30">
         <v>375.62</v>
@@ -1298,7 +1298,7 @@
         <v>9718.742</v>
       </c>
       <c r="G31">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H31">
         <v>296.6</v>
@@ -1327,7 +1327,7 @@
         <v>9582.455333333</v>
       </c>
       <c r="G32">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H32">
         <v>287.53</v>
@@ -1356,7 +1356,7 @@
         <v>9573.722666666999</v>
       </c>
       <c r="G33">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H33">
         <v>268.025</v>
@@ -1385,7 +1385,7 @@
         <v>9539.678</v>
       </c>
       <c r="G34">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H34">
         <v>329.96</v>
@@ -1414,7 +1414,7 @@
         <v>9404.662</v>
       </c>
       <c r="G35">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H35">
         <v>354.66</v>
@@ -1443,7 +1443,7 @@
         <v>9135.428</v>
       </c>
       <c r="G36">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H36">
         <v>268.27</v>
@@ -1472,7 +1472,7 @@
         <v>9138.486999999999</v>
       </c>
       <c r="G37">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H37">
         <v>231.96</v>
@@ -1501,7 +1501,7 @@
         <v>9154.370666667</v>
       </c>
       <c r="G38">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H38">
         <v>159.64</v>
@@ -1530,7 +1530,7 @@
         <v>9213.778666667</v>
       </c>
       <c r="G39">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H39">
         <v>294.065</v>
@@ -1559,7 +1559,7 @@
         <v>8751.388333333</v>
       </c>
       <c r="G40">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H40">
         <v>497.985</v>
@@ -1588,7 +1588,7 @@
         <v>8708.945</v>
       </c>
       <c r="G41">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H41">
         <v>459.85</v>
@@ -1617,7 +1617,7 @@
         <v>8108.404333333</v>
       </c>
       <c r="G42">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H42">
         <v>243.02</v>
@@ -1646,7 +1646,7 @@
         <v>7909.545666667</v>
       </c>
       <c r="G43">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H43">
         <v>289.935</v>
@@ -1675,7 +1675,7 @@
         <v>7877.413333333</v>
       </c>
       <c r="G44">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H44">
         <v>183.37</v>
@@ -1704,7 +1704,7 @@
         <v>7771.476666667</v>
       </c>
       <c r="G45">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H45">
         <v>182.86</v>
@@ -1733,7 +1733,7 @@
         <v>7145.356</v>
       </c>
       <c r="G46">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H46">
         <v>335.24</v>
@@ -1762,7 +1762,7 @@
         <v>6478.182</v>
       </c>
       <c r="G47">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H47">
         <v>258.575</v>
@@ -1791,7 +1791,7 @@
         <v>5627.519</v>
       </c>
       <c r="G48">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H48">
         <v>228.36</v>
@@ -1820,7 +1820,7 @@
         <v>5290.440333333</v>
       </c>
       <c r="G49">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H49">
         <v>226.52</v>
@@ -1849,7 +1849,7 @@
         <v>4201.791</v>
       </c>
       <c r="G50">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H50">
         <v>273.26</v>
@@ -1878,7 +1878,7 @@
         <v>4021.984333333</v>
       </c>
       <c r="G51">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H51">
         <v>341.06</v>
@@ -1907,7 +1907,7 @@
         <v>3337.348333333</v>
       </c>
       <c r="G52">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H52">
         <v>291.81</v>
@@ -1936,7 +1936,7 @@
         <v>2325.165333333</v>
       </c>
       <c r="G53">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H53">
         <v>316.21</v>
@@ -1965,7 +1965,7 @@
         <v>1712.211333333</v>
       </c>
       <c r="G54">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H54">
         <v>233.47</v>
@@ -1994,7 +1994,7 @@
         <v>1601.055333333</v>
       </c>
       <c r="G55">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H55">
         <v>291.94</v>
@@ -2023,7 +2023,7 @@
         <v>1629.861333333</v>
       </c>
       <c r="G56">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H56">
         <v>478.28</v>
@@ -2052,7 +2052,7 @@
         <v>1159.559333333</v>
       </c>
       <c r="G57">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H57">
         <v>840.45</v>
@@ -2081,7 +2081,7 @@
         <v>1057.684666667</v>
       </c>
       <c r="G58">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H58">
         <v>264.79</v>
@@ -2110,7 +2110,7 @@
         <v>1046.674</v>
       </c>
       <c r="G59">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H59">
         <v>362.94</v>
@@ -2139,7 +2139,7 @@
         <v>1049.393</v>
       </c>
       <c r="G60">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H60">
         <v>228.595</v>
@@ -2168,7 +2168,7 @@
         <v>1044.797333333</v>
       </c>
       <c r="G61">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H61">
         <v>227.665</v>
@@ -2197,7 +2197,7 @@
         <v>1106.167</v>
       </c>
       <c r="G62">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H62">
         <v>577.7</v>
@@ -2226,7 +2226,7 @@
         <v>1123.570333333</v>
       </c>
       <c r="G63">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H63">
         <v>529.075</v>
@@ -2255,7 +2255,7 @@
         <v>1093.218</v>
       </c>
       <c r="G64">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H64">
         <v>364.48</v>
@@ -2284,7 +2284,7 @@
         <v>1101.041666667</v>
       </c>
       <c r="G65">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H65">
         <v>656.9299999999999</v>
@@ -2313,7 +2313,7 @@
         <v>1111.157</v>
       </c>
       <c r="G66">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H66">
         <v>285.865</v>
@@ -2342,7 +2342,7 @@
         <v>1137.031</v>
       </c>
       <c r="G67">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H67">
         <v>316.66</v>
@@ -2371,7 +2371,7 @@
         <v>1163.844</v>
       </c>
       <c r="G68">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H68">
         <v>327.51</v>
@@ -2400,7 +2400,7 @@
         <v>1107.176666667</v>
       </c>
       <c r="G69">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H69">
         <v>475.2</v>
@@ -2429,7 +2429,7 @@
         <v>1084.978666667</v>
       </c>
       <c r="G70">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H70">
         <v>330.03</v>
@@ -2458,7 +2458,7 @@
         <v>1077.273</v>
       </c>
       <c r="G71">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H71">
         <v>302.44</v>
@@ -2487,7 +2487,7 @@
         <v>1020.755666667</v>
       </c>
       <c r="G72">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H72">
         <v>343.82</v>
@@ -2516,7 +2516,7 @@
         <v>1011.756</v>
       </c>
       <c r="G73">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H73">
         <v>309.88</v>
@@ -2545,7 +2545,7 @@
         <v>1095.924333333</v>
       </c>
       <c r="G74">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H74">
         <v>385.575</v>
@@ -2574,7 +2574,7 @@
         <v>1070.671</v>
       </c>
       <c r="G75">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H75">
         <v>366.955</v>
@@ -2603,7 +2603,7 @@
         <v>923.287</v>
       </c>
       <c r="G76">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H76">
         <v>393.155</v>
@@ -2632,7 +2632,7 @@
         <v>936.495666667</v>
       </c>
       <c r="G77">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H77">
         <v>456.705</v>
@@ -2661,7 +2661,7 @@
         <v>964.393</v>
       </c>
       <c r="G78">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H78">
         <v>424.61</v>
@@ -2690,7 +2690,7 @@
         <v>965.8233333330001</v>
       </c>
       <c r="G79">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H79">
         <v>362.165</v>
@@ -2719,7 +2719,7 @@
         <v>967.177333333</v>
       </c>
       <c r="G80">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H80">
         <v>313.88</v>
@@ -2748,7 +2748,7 @@
         <v>957.375</v>
       </c>
       <c r="G81">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H81">
         <v>391.66</v>
@@ -2777,7 +2777,7 @@
         <v>1063.577333333</v>
       </c>
       <c r="G82">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H82">
         <v>335.24</v>
@@ -2806,7 +2806,7 @@
         <v>1109.867333333</v>
       </c>
       <c r="G83">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H83">
         <v>482.69</v>
@@ -2835,7 +2835,7 @@
         <v>1378.241</v>
       </c>
       <c r="G84">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H84">
         <v>423.8</v>
@@ -2864,7 +2864,7 @@
         <v>1574.789</v>
       </c>
       <c r="G85">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H85">
         <v>424.99</v>
@@ -2893,7 +2893,7 @@
         <v>1528.044333333</v>
       </c>
       <c r="G86">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H86">
         <v>380.03</v>
@@ -2922,7 +2922,7 @@
         <v>1497.829333333</v>
       </c>
       <c r="G87">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H87">
         <v>387.225</v>
@@ -2951,7 +2951,7 @@
         <v>1507.024</v>
       </c>
       <c r="G88">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H88">
         <v>402.71</v>
@@ -2980,7 +2980,7 @@
         <v>1511.416666667</v>
       </c>
       <c r="G89">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H89">
         <v>494.72</v>
@@ -3009,7 +3009,7 @@
         <v>1550.405666667</v>
       </c>
       <c r="G90">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H90">
         <v>415.835</v>
@@ -3038,7 +3038,7 @@
         <v>1546.967666667</v>
       </c>
       <c r="G91">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H91">
         <v>352.19</v>
@@ -3067,7 +3067,7 @@
         <v>1488.492666667</v>
       </c>
       <c r="G92">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H92">
         <v>374.37</v>
@@ -3096,7 +3096,7 @@
         <v>1464.197333333</v>
       </c>
       <c r="G93">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H93">
         <v>329.29</v>
@@ -3125,7 +3125,7 @@
         <v>1465.082333333</v>
       </c>
       <c r="G94">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H94">
         <v>391.03</v>
@@ -3154,7 +3154,7 @@
         <v>3485.346666667</v>
       </c>
       <c r="G95">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H95">
         <v>1384.99</v>
@@ -3183,7 +3183,7 @@
         <v>3605.773666667</v>
       </c>
       <c r="G96">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H96">
         <v>370.495</v>
@@ -3212,7 +3212,7 @@
         <v>3610.681</v>
       </c>
       <c r="G97">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H97">
         <v>418.77</v>
@@ -3241,7 +3241,7 @@
         <v>3882.783</v>
       </c>
       <c r="G98">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H98">
         <v>392.81</v>
@@ -3270,7 +3270,7 @@
         <v>4092.847</v>
       </c>
       <c r="G99">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H99">
         <v>397.97</v>
@@ -3299,7 +3299,7 @@
         <v>5458.408333333</v>
       </c>
       <c r="G100">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H100">
         <v>514.47</v>
@@ -3328,7 +3328,7 @@
         <v>6859.45</v>
       </c>
       <c r="G101">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H101">
         <v>746.4299999999999</v>
@@ -3357,7 +3357,7 @@
         <v>8834.924000000001</v>
       </c>
       <c r="G102">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H102">
         <v>639.83</v>
@@ -3386,7 +3386,7 @@
         <v>12197.439666667</v>
       </c>
       <c r="G103">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H103">
         <v>676.5</v>
@@ -3415,7 +3415,7 @@
         <v>14909.099</v>
       </c>
       <c r="G104">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H104">
         <v>1261.38</v>
@@ -3444,7 +3444,7 @@
         <v>15006.073666667</v>
       </c>
       <c r="G105">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H105">
         <v>755.63</v>
@@ -3473,7 +3473,7 @@
         <v>15064.843333333</v>
       </c>
       <c r="G106">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H106">
         <v>2549.4</v>
@@ -3502,7 +3502,7 @@
         <v>15367.290333333</v>
       </c>
       <c r="G107">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H107">
         <v>811.49</v>
@@ -3531,7 +3531,7 @@
         <v>15354.526333333</v>
       </c>
       <c r="G108">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H108">
         <v>958.46</v>
@@ -3560,7 +3560,7 @@
         <v>16153.616666667</v>
       </c>
       <c r="G109">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H109">
         <v>838.65</v>
@@ -3589,7 +3589,7 @@
         <v>16353.931</v>
       </c>
       <c r="G110">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H110">
         <v>921.03</v>
@@ -3618,7 +3618,7 @@
         <v>17272.726</v>
       </c>
       <c r="G111">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H111">
         <v>753.825</v>
@@ -3647,7 +3647,7 @@
         <v>17558.753666667</v>
       </c>
       <c r="G112">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H112">
         <v>815.54</v>
@@ -3676,7 +3676,7 @@
         <v>20621.855666667</v>
       </c>
       <c r="G113">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H113">
         <v>1012.05</v>
@@ -3705,7 +3705,7 @@
         <v>22238.375666667</v>
       </c>
       <c r="G114">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H114">
         <v>1206.56</v>
@@ -3734,7 +3734,7 @@
         <v>24529.802333333</v>
       </c>
       <c r="G115">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H115">
         <v>1038.59</v>
@@ -3763,7 +3763,7 @@
         <v>27145.167666667</v>
       </c>
       <c r="G116">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H116">
         <v>1244.7</v>
@@ -3792,7 +3792,7 @@
         <v>36838.806</v>
       </c>
       <c r="G117">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H117">
         <v>1812.38</v>
@@ -3821,7 +3821,7 @@
         <v>38393.644333333</v>
       </c>
       <c r="G118">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H118">
         <v>2122.88</v>
@@ -3850,7 +3850,7 @@
         <v>39225.208666667</v>
       </c>
       <c r="G119">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H119">
         <v>2137.485</v>
@@ -3879,7 +3879,7 @@
         <v>39880.848333333</v>
       </c>
       <c r="G120">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H120">
         <v>2071.665</v>
@@ -3908,7 +3908,7 @@
         <v>40218.470333333</v>
       </c>
       <c r="G121">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H121">
         <v>1717.515</v>
@@ -3937,7 +3937,7 @@
         <v>41210.378666667</v>
       </c>
       <c r="G122">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H122">
         <v>1936.43</v>
@@ -3966,7 +3966,7 @@
         <v>41605.087666667</v>
       </c>
       <c r="G123">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H123">
         <v>2024.535</v>
@@ -3995,7 +3995,7 @@
         <v>42838.994</v>
       </c>
       <c r="G124">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H124">
         <v>2187.035</v>
@@ -4024,7 +4024,7 @@
         <v>41428.255666667</v>
       </c>
       <c r="G125">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H125">
         <v>1933.12</v>
@@ -4053,7 +4053,7 @@
         <v>42749.729333333</v>
       </c>
       <c r="G126">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H126">
         <v>2893.36</v>
@@ -4082,7 +4082,7 @@
         <v>43761.890333333</v>
       </c>
       <c r="G127">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H127">
         <v>1873.38</v>
@@ -4111,7 +4111,7 @@
         <v>43917.336333333</v>
       </c>
       <c r="G128">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H128">
         <v>1786.845</v>
@@ -4140,7 +4140,7 @@
         <v>43959.396333333</v>
       </c>
       <c r="G129">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H129">
         <v>4019.46</v>
@@ -4169,7 +4169,7 @@
         <v>43145.57</v>
       </c>
       <c r="G130">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H130">
         <v>2058.075</v>
@@ -4198,7 +4198,7 @@
         <v>42927.532666667</v>
       </c>
       <c r="G131">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H131">
         <v>1865.225</v>
@@ -4227,7 +4227,7 @@
         <v>41156.715</v>
       </c>
       <c r="G132">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H132">
         <v>1915.93</v>
@@ -4256,7 +4256,7 @@
         <v>38076.684666667</v>
       </c>
       <c r="G133">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H133">
         <v>2101.86</v>
@@ -4285,7 +4285,7 @@
         <v>36277.144</v>
       </c>
       <c r="G134">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H134">
         <v>2236.99</v>
@@ -4314,7 +4314,7 @@
         <v>36914.396333333</v>
       </c>
       <c r="G135">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H135">
         <v>2380.84</v>
@@ -4343,7 +4343,7 @@
         <v>37149.51</v>
       </c>
       <c r="G136">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H136">
         <v>1746.89</v>
@@ -4372,7 +4372,7 @@
         <v>37146.674666667</v>
       </c>
       <c r="G137">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H137">
         <v>1813.68</v>
@@ -4401,7 +4401,7 @@
         <v>37294.162333333</v>
       </c>
       <c r="G138">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H138">
         <v>1711.29</v>
@@ -4430,7 +4430,7 @@
         <v>36627.470333333</v>
       </c>
       <c r="G139">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H139">
         <v>4696.28</v>
@@ -4459,7 +4459,7 @@
         <v>36622.253333333</v>
       </c>
       <c r="G140">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H140">
         <v>2210.04</v>
@@ -4488,7 +4488,7 @@
         <v>35846.426</v>
       </c>
       <c r="G141">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H141">
         <v>1669.56</v>
@@ -4517,7 +4517,7 @@
         <v>35611.752</v>
       </c>
       <c r="G142">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H142">
         <v>1574.45</v>
@@ -4546,7 +4546,7 @@
         <v>32654.864</v>
       </c>
       <c r="G143">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H143">
         <v>1647.76</v>
@@ -4575,7 +4575,7 @@
         <v>31122.248</v>
       </c>
       <c r="G144">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H144">
         <v>1857.7</v>
@@ -4604,7 +4604,7 @@
         <v>28913.461333333</v>
       </c>
       <c r="G145">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H145">
         <v>1622.56</v>
@@ -4633,7 +4633,7 @@
         <v>26944.387333333</v>
       </c>
       <c r="G146">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H146">
         <v>19768.77</v>
@@ -4662,7 +4662,7 @@
         <v>17272.750666667</v>
       </c>
       <c r="G147">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H147">
         <v>1434.5</v>
@@ -4691,7 +4691,7 @@
         <v>15742.588666667</v>
       </c>
       <c r="G148">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H148">
         <v>1545.71</v>
@@ -4720,7 +4720,7 @@
         <v>14939.017666667</v>
       </c>
       <c r="G149">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H149">
         <v>1334.52</v>
@@ -4749,7 +4749,7 @@
         <v>14286.32</v>
       </c>
       <c r="G150">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H150">
         <v>1715.12</v>
@@ -4778,7 +4778,7 @@
         <v>14032.536</v>
       </c>
       <c r="G151">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H151">
         <v>1433.665</v>
@@ -4807,7 +4807,7 @@
         <v>13079.101</v>
       </c>
       <c r="G152">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H152">
         <v>1528.57</v>
@@ -4836,7 +4836,7 @@
         <v>12983.911</v>
       </c>
       <c r="G153">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H153">
         <v>1750.08</v>
@@ -4865,7 +4865,7 @@
         <v>11827.491666667</v>
       </c>
       <c r="G154">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H154">
         <v>2715.64</v>
@@ -4894,7 +4894,7 @@
         <v>11238.228333333</v>
       </c>
       <c r="G155">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H155">
         <v>1921.74</v>
@@ -4923,7 +4923,7 @@
         <v>9914.627666667</v>
       </c>
       <c r="G156">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H156">
         <v>2060.365</v>
@@ -4952,7 +4952,7 @@
         <v>8901.208333332999</v>
       </c>
       <c r="G157">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H157">
         <v>2047.13</v>
@@ -4981,7 +4981,7 @@
         <v>9225.480333333</v>
       </c>
       <c r="G158">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H158">
         <v>12146.075</v>
@@ -5010,7 +5010,7 @@
         <v>9216.369666667</v>
       </c>
       <c r="G159">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H159">
         <v>2633.97</v>
@@ -5039,7 +5039,7 @@
         <v>9134.893666667</v>
       </c>
       <c r="G160">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H160">
         <v>3264.39</v>
@@ -5068,7 +5068,7 @@
         <v>9366.426666666999</v>
       </c>
       <c r="G161">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H161">
         <v>2612.175</v>
@@ -5097,7 +5097,7 @@
         <v>9317.848</v>
       </c>
       <c r="G162">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H162">
         <v>1773.7</v>
@@ -5126,7 +5126,7 @@
         <v>9090.449000000001</v>
       </c>
       <c r="G163">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H163">
         <v>1962.47</v>
@@ -5155,7 +5155,7 @@
         <v>8134.078666667</v>
       </c>
       <c r="G164">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H164">
         <v>2022.98</v>
@@ -5184,7 +5184,7 @@
         <v>8301.395</v>
       </c>
       <c r="G165">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H165">
         <v>2274.11</v>
@@ -5213,7 +5213,7 @@
         <v>8164.702333333</v>
       </c>
       <c r="G166">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H166">
         <v>1588.51</v>
@@ -5242,7 +5242,7 @@
         <v>7986.149666667</v>
       </c>
       <c r="G167">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H167">
         <v>2272.59</v>
@@ -5271,7 +5271,7 @@
         <v>7965.011333333</v>
       </c>
       <c r="G168">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H168">
         <v>2374.47</v>
@@ -5300,7 +5300,7 @@
         <v>7868.097</v>
       </c>
       <c r="G169">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H169">
         <v>1788.85</v>
@@ -5329,7 +5329,7 @@
         <v>7712.708</v>
       </c>
       <c r="G170">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H170">
         <v>1505.13</v>
@@ -5358,7 +5358,7 @@
         <v>7606.051333333</v>
       </c>
       <c r="G171">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H171">
         <v>1872.65</v>
@@ -5387,7 +5387,7 @@
         <v>7835.656333333</v>
       </c>
       <c r="G172">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H172">
         <v>11906.64</v>
@@ -5416,7 +5416,7 @@
         <v>8394.644</v>
       </c>
       <c r="G173">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H173">
         <v>21977.17</v>
@@ -5445,7 +5445,7 @@
         <v>8311.586666667001</v>
       </c>
       <c r="G174">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H174">
         <v>1513.235</v>
@@ -5474,7 +5474,7 @@
         <v>8050.784666667</v>
       </c>
       <c r="G175">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H175">
         <v>1553.77</v>
@@ -5503,7 +5503,7 @@
         <v>7599.304</v>
       </c>
       <c r="G176">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H176">
         <v>2074.78</v>
@@ -5532,7 +5532,7 @@
         <v>7997.125333333</v>
       </c>
       <c r="G177">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H177">
         <v>3049.9</v>
@@ -5561,7 +5561,7 @@
         <v>8539.846666666999</v>
       </c>
       <c r="G178">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H178">
         <v>2126.72</v>
@@ -5590,7 +5590,7 @@
         <v>8653.054666667</v>
       </c>
       <c r="G179">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H179">
         <v>2365.38</v>
@@ -5619,7 +5619,7 @@
         <v>11207.652</v>
       </c>
       <c r="G180">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H180">
         <v>2508.05</v>
@@ -5648,7 +5648,7 @@
         <v>13786.845333333</v>
       </c>
       <c r="G181">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H181">
         <v>3530.28</v>
@@ -5677,7 +5677,7 @@
         <v>15904.259</v>
       </c>
       <c r="G182">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H182">
         <v>3168.69</v>
@@ -5706,7 +5706,7 @@
         <v>21258.491</v>
       </c>
       <c r="G183">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H183">
         <v>6113.73</v>
@@ -5735,7 +5735,7 @@
         <v>25286.604</v>
       </c>
       <c r="G184">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H184">
         <v>3217.57</v>
@@ -5764,7 +5764,7 @@
         <v>27345.815333333</v>
       </c>
       <c r="G185">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H185">
         <v>3475.12</v>
@@ -5793,7 +5793,7 @@
         <v>27917.626666667</v>
       </c>
       <c r="G186">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H186">
         <v>4062.53</v>
@@ -5822,7 +5822,7 @@
         <v>28942.656</v>
       </c>
       <c r="G187">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H187">
         <v>3897.54</v>
@@ -5851,7 +5851,7 @@
         <v>33887.895</v>
       </c>
       <c r="G188">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H188">
         <v>4410.94</v>
@@ -5880,7 +5880,7 @@
         <v>34496.944333333</v>
       </c>
       <c r="G189">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H189">
         <v>4394.21</v>
@@ -5909,7 +5909,7 @@
         <v>36478.656</v>
       </c>
       <c r="G190">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H190">
         <v>36944.575</v>
@@ -5938,7 +5938,7 @@
         <v>35688.796666667</v>
       </c>
       <c r="G191">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H191">
         <v>4011.29</v>
@@ -5967,7 +5967,7 @@
         <v>36397.23</v>
       </c>
       <c r="G192">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H192">
         <v>6068.085</v>
@@ -5996,7 +5996,7 @@
         <v>37604.100333333</v>
       </c>
       <c r="G193">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H193">
         <v>7626.03</v>
@@ -6025,7 +6025,7 @@
         <v>40610.125</v>
       </c>
       <c r="G194">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H194">
         <v>5473.75</v>
@@ -6054,7 +6054,7 @@
         <v>44974.612666667</v>
       </c>
       <c r="G195">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H195">
         <v>5980.08</v>
@@ -6083,7 +6083,7 @@
         <v>49268.127</v>
       </c>
       <c r="G196">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H196">
         <v>9254.059999999999</v>
@@ -6112,7 +6112,7 @@
         <v>51008.297666667</v>
       </c>
       <c r="G197">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H197">
         <v>5934.47</v>
@@ -6141,7 +6141,7 @@
         <v>51468.299</v>
       </c>
       <c r="G198">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H198">
         <v>5948.49</v>
@@ -6170,7 +6170,7 @@
         <v>58465.414333333</v>
       </c>
       <c r="G199">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H199">
         <v>6688.47</v>
@@ -6199,7 +6199,7 @@
         <v>60937.192333333</v>
       </c>
       <c r="G200">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H200">
         <v>4919.62</v>
@@ -6228,7 +6228,7 @@
         <v>63865.544666667</v>
       </c>
       <c r="G201">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H201">
         <v>5767.63</v>
@@ -6257,7 +6257,7 @@
         <v>66877.154666667</v>
       </c>
       <c r="G202">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H202">
         <v>6687.045</v>
@@ -6286,7 +6286,7 @@
         <v>67075.16233333301</v>
       </c>
       <c r="G203">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H203">
         <v>6725.97</v>
@@ -6315,7 +6315,7 @@
         <v>67151.20833333299</v>
       </c>
       <c r="G204">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H204">
         <v>5412.465</v>
@@ -6344,7 +6344,7 @@
         <v>67755.033</v>
       </c>
       <c r="G205">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H205">
         <v>5766.11</v>
@@ -6373,7 +6373,7 @@
         <v>74682.491333333</v>
       </c>
       <c r="G206">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H206">
         <v>7397.82</v>
@@ -6402,7 +6402,7 @@
         <v>76379.63233333299</v>
       </c>
       <c r="G207">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H207">
         <v>18571.56</v>
@@ -6431,7 +6431,7 @@
         <v>77182.21133333301</v>
       </c>
       <c r="G208">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H208">
         <v>12760.42</v>
@@ -6460,7 +6460,7 @@
         <v>78793.88099999999</v>
       </c>
       <c r="G209">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H209">
         <v>6035.55</v>
@@ -6489,7 +6489,7 @@
         <v>77523.40700000001</v>
       </c>
       <c r="G210">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H210">
         <v>5751.775</v>
@@ -6518,7 +6518,7 @@
         <v>80142.493</v>
       </c>
       <c r="G211">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H211">
         <v>6788.76</v>
@@ -6547,7 +6547,7 @@
         <v>92033.403666667</v>
       </c>
       <c r="G212">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H212">
         <v>9316.24</v>
@@ -6576,7 +6576,7 @@
         <v>93653.156333333</v>
       </c>
       <c r="G213">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H213">
         <v>8484.139999999999</v>
@@ -6605,7 +6605,7 @@
         <v>94761.81866666699</v>
       </c>
       <c r="G214">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H214">
         <v>7561.44</v>
@@ -6634,7 +6634,7 @@
         <v>110581.557</v>
       </c>
       <c r="G215">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H215">
         <v>7765.515</v>
@@ -6663,7 +6663,7 @@
         <v>124152.162</v>
       </c>
       <c r="G216">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H216">
         <v>14548.3</v>
@@ -6692,7 +6692,7 @@
         <v>127183.909</v>
       </c>
       <c r="G217">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H217">
         <v>7735.5</v>
@@ -6721,7 +6721,7 @@
         <v>129978.138333333</v>
       </c>
       <c r="G218">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H218">
         <v>12964.945</v>
@@ -6750,7 +6750,7 @@
         <v>132544.977666667</v>
       </c>
       <c r="G219">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H219">
         <v>9254.049999999999</v>
@@ -6779,7 +6779,7 @@
         <v>140401.983666667</v>
       </c>
       <c r="G220">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H220">
         <v>8752.780000000001</v>
@@ -6808,7 +6808,7 @@
         <v>161625.224666667</v>
       </c>
       <c r="G221">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H221">
         <v>17857.325</v>
@@ -6837,7 +6837,7 @@
         <v>172092.719</v>
       </c>
       <c r="G222">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H222">
         <v>10344.19</v>
@@ -6866,7 +6866,7 @@
         <v>192669.013666667</v>
       </c>
       <c r="G223">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H223">
         <v>16075.8</v>
@@ -6895,7 +6895,7 @@
         <v>203057.696</v>
       </c>
       <c r="G224">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H224">
         <v>20594.315</v>
@@ -6924,7 +6924,7 @@
         <v>205021.700666667</v>
       </c>
       <c r="G225">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H225">
         <v>15355.98</v>
@@ -6953,7 +6953,7 @@
         <v>214870.458666667</v>
       </c>
       <c r="G226">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H226">
         <v>13425.08</v>
@@ -6982,7 +6982,7 @@
         <v>249923.632333333</v>
       </c>
       <c r="G227">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H227">
         <v>11541.68</v>
@@ -7011,7 +7011,7 @@
         <v>274807.935333333</v>
       </c>
       <c r="G228">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H228">
         <v>13970.765</v>
@@ -7040,7 +7040,7 @@
         <v>277364.823333333</v>
       </c>
       <c r="G229">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H229">
         <v>14169</v>
@@ -7069,7 +7069,7 @@
         <v>319720.562</v>
       </c>
       <c r="G230">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H230">
         <v>13811.21</v>
@@ -7098,7 +7098,7 @@
         <v>323676.459666667</v>
       </c>
       <c r="G231">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H231">
         <v>13756.51</v>
@@ -7127,7 +7127,7 @@
         <v>364388.574666667</v>
       </c>
       <c r="G232">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H232">
         <v>14322.24</v>
@@ -7156,7 +7156,7 @@
         <v>484647.922</v>
       </c>
       <c r="G233">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H233">
         <v>17456.98</v>
@@ -7185,7 +7185,7 @@
         <v>564747.366666667</v>
       </c>
       <c r="G234">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H234">
         <v>18125.205</v>
@@ -7214,7 +7214,7 @@
         <v>619622.692333333</v>
       </c>
       <c r="G235">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H235">
         <v>18085.12</v>
@@ -7243,7 +7243,7 @@
         <v>766543.397</v>
       </c>
       <c r="G236">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H236">
         <v>22089.71</v>
@@ -7272,7 +7272,7 @@
         <v>952132.234333333</v>
       </c>
       <c r="G237">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H237">
         <v>28498.285</v>
@@ -7301,7 +7301,7 @@
         <v>1115545.334</v>
       </c>
       <c r="G238">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H238">
         <v>29246.895</v>
@@ -7330,7 +7330,7 @@
         <v>1237150.44733333</v>
       </c>
       <c r="G239">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H239">
         <v>32240.02</v>
@@ -7359,7 +7359,7 @@
         <v>1632870.01633333</v>
       </c>
       <c r="G240">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H240">
         <v>38536.91</v>
@@ -7388,7 +7388,7 @@
         <v>1994870.49533333</v>
       </c>
       <c r="G241">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H241">
         <v>44628.7</v>
@@ -7417,7 +7417,7 @@
         <v>2095972.389</v>
       </c>
       <c r="G242">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H242">
         <v>42065.82</v>
@@ -7446,7 +7446,7 @@
         <v>2168611.67633333</v>
       </c>
       <c r="G243">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H243">
         <v>41478.55</v>
@@ -7475,7 +7475,7 @@
         <v>2213546.98233333</v>
       </c>
       <c r="G244">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H244">
         <v>39946.2</v>
@@ -7504,7 +7504,7 @@
         <v>2236083.61433333</v>
       </c>
       <c r="G245">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H245">
         <v>35165.98</v>
@@ -7533,7 +7533,7 @@
         <v>2281168.85666667</v>
       </c>
       <c r="G246">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H246">
         <v>40243.085</v>
@@ -7562,7 +7562,7 @@
         <v>2320345.576</v>
       </c>
       <c r="G247">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H247">
         <v>34715.8</v>
@@ -7591,7 +7591,7 @@
         <v>2363833.861</v>
       </c>
       <c r="G248">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H248">
         <v>37588.44</v>
@@ -7620,7 +7620,7 @@
         <v>2452443.64466667</v>
       </c>
       <c r="G249">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H249">
         <v>39631.11</v>
@@ -7649,7 +7649,7 @@
         <v>2514592.52066667</v>
       </c>
       <c r="G250">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H250">
         <v>54646.72</v>
@@ -7678,7 +7678,7 @@
         <v>2524323.945</v>
       </c>
       <c r="G251">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H251">
         <v>37751.23</v>
@@ -7707,7 +7707,7 @@
         <v>2586202.20933333</v>
       </c>
       <c r="G252">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H252">
         <v>32760.565</v>
@@ -7736,7 +7736,7 @@
         <v>2585591.23533333</v>
       </c>
       <c r="G253">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H253">
         <v>34385.585</v>
@@ -7765,7 +7765,7 @@
         <v>2605944.04233333</v>
       </c>
       <c r="G254">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H254">
         <v>33158.925</v>
@@ -7794,7 +7794,7 @@
         <v>2645269.644</v>
       </c>
       <c r="G255">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H255">
         <v>37238.665</v>
@@ -7823,7 +7823,7 @@
         <v>2652696.96466667</v>
       </c>
       <c r="G256">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H256">
         <v>38027.86</v>
@@ -7852,7 +7852,7 @@
         <v>2635458.236</v>
       </c>
       <c r="G257">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H257">
         <v>37929.87</v>
@@ -7881,7 +7881,7 @@
         <v>3042006.43866667</v>
       </c>
       <c r="G258">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H258">
         <v>39036.64</v>
@@ -7910,7 +7910,7 @@
         <v>3322076.65133333</v>
       </c>
       <c r="G259">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H259">
         <v>48774.22</v>
@@ -7939,7 +7939,7 @@
         <v>3367481.18266667</v>
       </c>
       <c r="G260">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H260">
         <v>48022.765</v>
@@ -7968,7 +7968,7 @@
         <v>3479184.11366667</v>
       </c>
       <c r="G261">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H261">
         <v>52949.21</v>
@@ -7997,7 +7997,7 @@
         <v>3553697.787</v>
       </c>
       <c r="G262">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H262">
         <v>48462.65</v>
@@ -8026,7 +8026,7 @@
         <v>3502291.03733333</v>
       </c>
       <c r="G263">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H263">
         <v>46655.36</v>
@@ -8055,7 +8055,7 @@
         <v>3509592.776</v>
       </c>
       <c r="G264">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H264">
         <v>49695.5</v>
@@ -8084,7 +8084,7 @@
         <v>3546867.43766667</v>
       </c>
       <c r="G265">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H265">
         <v>55075.32</v>
@@ -8113,7 +8113,7 @@
         <v>3445047.00766667</v>
       </c>
       <c r="G266">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H266">
         <v>47565.22</v>
@@ -8142,7 +8142,7 @@
         <v>3327087.371</v>
       </c>
       <c r="G267">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H267">
         <v>50933.725</v>
@@ -8171,7 +8171,7 @@
         <v>3261038.84666667</v>
       </c>
       <c r="G268">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H268">
         <v>46489.87</v>
@@ -8200,7 +8200,7 @@
         <v>3167851.227</v>
       </c>
       <c r="G269">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H269">
         <v>49616.68</v>
@@ -8229,7 +8229,7 @@
         <v>2818416.27366667</v>
       </c>
       <c r="G270">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H270">
         <v>38878.31</v>
@@ -8258,7 +8258,7 @@
         <v>2469137.19666667</v>
       </c>
       <c r="G271">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H271">
         <v>37264.105</v>
@@ -8287,7 +8287,7 @@
         <v>2368382.73966667</v>
       </c>
       <c r="G272">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H272">
         <v>37113.07</v>
@@ -8316,7 +8316,7 @@
         <v>2298692.18266667</v>
       </c>
       <c r="G273">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H273">
         <v>32931.15</v>
@@ -8345,7 +8345,7 @@
         <v>2282111.741</v>
       </c>
       <c r="G274">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H274">
         <v>35507.07</v>
@@ -8374,7 +8374,7 @@
         <v>2269776.44433334</v>
       </c>
       <c r="G275">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H275">
         <v>33505.86</v>
@@ -8403,7 +8403,7 @@
         <v>2229086.83633334</v>
       </c>
       <c r="G276">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H276">
         <v>44033.68</v>
@@ -8432,7 +8432,7 @@
         <v>2229629.96766667</v>
       </c>
       <c r="G277">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H277">
         <v>36674.28</v>
@@ -8461,7 +8461,7 @@
         <v>2200916.428</v>
       </c>
       <c r="G278">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H278">
         <v>36710.575</v>
@@ -8490,7 +8490,7 @@
         <v>2129516.001</v>
       </c>
       <c r="G279">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H279">
         <v>34870.78</v>
@@ -8519,7 +8519,7 @@
         <v>2080738.38066667</v>
       </c>
       <c r="G280">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H280">
         <v>35145.31</v>
@@ -8548,7 +8548,7 @@
         <v>2073071.11433334</v>
       </c>
       <c r="G281">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H281">
         <v>41006.27</v>
@@ -8577,7 +8577,7 @@
         <v>2022850.90766667</v>
       </c>
       <c r="G282">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H282">
         <v>32515.32</v>
@@ -8606,7 +8606,7 @@
         <v>2055847.373</v>
       </c>
       <c r="G283">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H283">
         <v>36541.67</v>
@@ -8635,7 +8635,7 @@
         <v>2052150.69166667</v>
       </c>
       <c r="G284">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H284">
         <v>36205.49</v>
@@ -8664,7 +8664,7 @@
         <v>2034037.16933334</v>
       </c>
       <c r="G285">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H285">
         <v>37384.42</v>
@@ -8693,7 +8693,7 @@
         <v>2317148.474</v>
       </c>
       <c r="G286">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H286">
         <v>43525.88</v>
@@ -8722,7 +8722,7 @@
         <v>2461760.73266667</v>
       </c>
       <c r="G287">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H287">
         <v>51942.73</v>
@@ -8751,7 +8751,7 @@
         <v>2105767.352</v>
       </c>
       <c r="G288">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H288">
         <v>51815.13</v>
@@ -8780,7 +8780,7 @@
         <v>1954099.485</v>
       </c>
       <c r="G289">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H289">
         <v>56582.64</v>
@@ -8809,7 +8809,7 @@
         <v>1992255.43133334</v>
       </c>
       <c r="G290">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H290">
         <v>57633.815</v>
@@ -8838,7 +8838,7 @@
         <v>2040780.98</v>
       </c>
       <c r="G291">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H291">
         <v>56324.68</v>
@@ -8867,7 +8867,7 @@
         <v>2024960.29033334</v>
       </c>
       <c r="G292">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H292">
         <v>60954.4</v>
@@ -8896,7 +8896,7 @@
         <v>2027314.471</v>
       </c>
       <c r="G293">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H293">
         <v>55332.335</v>
@@ -8925,7 +8925,7 @@
         <v>2014112.47866667</v>
       </c>
       <c r="G294">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H294">
         <v>57985.145</v>
@@ -8954,7 +8954,7 @@
         <v>1993273.22433334</v>
       </c>
       <c r="G295">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H295">
         <v>55605.87</v>
@@ -8983,7 +8983,7 @@
         <v>2016239.95366667</v>
       </c>
       <c r="G296">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H296">
         <v>51622.75</v>
@@ -9012,7 +9012,7 @@
         <v>2043194.07</v>
       </c>
       <c r="G297">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H297">
         <v>56688.47</v>
@@ -9041,7 +9041,7 @@
         <v>2032268.909</v>
       </c>
       <c r="G298">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H298">
         <v>70112.205</v>
@@ -9070,7 +9070,7 @@
         <v>2081100.19866667</v>
       </c>
       <c r="G299">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H299">
         <v>63247.815</v>
@@ -9099,7 +9099,7 @@
         <v>2100516.571</v>
       </c>
       <c r="G300">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H300">
         <v>60413.85</v>
@@ -9128,7 +9128,7 @@
         <v>2155516.81433334</v>
       </c>
       <c r="G301">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H301">
         <v>51466.25</v>
@@ -9157,7 +9157,7 @@
         <v>2181353.191</v>
       </c>
       <c r="G302">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H302">
         <v>54986.41</v>
@@ -9186,7 +9186,7 @@
         <v>2190418.14966667</v>
       </c>
       <c r="G303">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H303">
         <v>47052.355</v>
@@ -9215,7 +9215,7 @@
         <v>2226383.35533334</v>
       </c>
       <c r="G304">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H304">
         <v>55807.78</v>
@@ -9244,7 +9244,7 @@
         <v>2303165.21733334</v>
       </c>
       <c r="G305">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H305">
         <v>62145.865</v>
@@ -9273,7 +9273,7 @@
         <v>2355608.84166667</v>
       </c>
       <c r="G306">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H306">
         <v>65110</v>
@@ -9302,7 +9302,7 @@
         <v>2359121.16133334</v>
       </c>
       <c r="G307">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H307">
         <v>66169.49000000001</v>
@@ -9331,7 +9331,7 @@
         <v>2403706.873</v>
       </c>
       <c r="G308">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H308">
         <v>79616.755</v>
@@ -9360,7 +9360,7 @@
         <v>2465504.11433334</v>
       </c>
       <c r="G309">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H309">
         <v>73314.5</v>
@@ -9389,7 +9389,7 @@
         <v>2530254.85366667</v>
       </c>
       <c r="G310">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H310">
         <v>67406.05</v>
@@ -9418,7 +9418,7 @@
         <v>2950299.354</v>
       </c>
       <c r="G311">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H311">
         <v>76396.95</v>
@@ -9447,7 +9447,7 @@
         <v>3093319.63333334</v>
       </c>
       <c r="G312">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H312">
         <v>85287.28999999999</v>
@@ -9476,7 +9476,7 @@
         <v>3131169.01466667</v>
       </c>
       <c r="G313">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H313">
         <v>93371.97</v>
@@ -9505,7 +9505,7 @@
         <v>3152650.94066667</v>
       </c>
       <c r="G314">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H314">
         <v>82031.23</v>
@@ -9534,7 +9534,7 @@
         <v>3153928.13366667</v>
       </c>
       <c r="G315">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H315">
         <v>80134.14999999999</v>
@@ -9563,7 +9563,7 @@
         <v>2942377.81366667</v>
       </c>
       <c r="G316">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H316">
         <v>106251.12</v>
@@ -9592,7 +9592,7 @@
         <v>2825083.85366667</v>
       </c>
       <c r="G317">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H317">
         <v>79065.44</v>
@@ -9621,7 +9621,7 @@
         <v>2792878.408</v>
       </c>
       <c r="G318">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H318">
         <v>88479.64999999999</v>
@@ -9650,7 +9650,7 @@
         <v>2729955.30433334</v>
       </c>
       <c r="G319">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H319">
         <v>68889.73</v>
@@ -9679,7 +9679,7 @@
         <v>2676091.72266667</v>
       </c>
       <c r="G320">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H320">
         <v>73186.48</v>
@@ -9708,7 +9708,7 @@
         <v>2582614.91133334</v>
       </c>
       <c r="G321">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H321">
         <v>52934.19</v>
@@ -9737,7 +9737,7 @@
         <v>2550579.66633334</v>
       </c>
       <c r="G322">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H322">
         <v>67492.80499999999</v>
@@ -9766,7 +9766,7 @@
         <v>2504796.453</v>
       </c>
       <c r="G323">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H323">
         <v>76914.92</v>
@@ -9795,7 +9795,7 @@
         <v>2440085.56266667</v>
       </c>
       <c r="G324">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H324">
         <v>63289.13</v>
@@ -9824,7 +9824,7 @@
         <v>2381143.11966667</v>
       </c>
       <c r="G325">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H325">
         <v>61002.75</v>
@@ -9853,7 +9853,7 @@
         <v>2369473.04533334</v>
       </c>
       <c r="G326">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H326">
         <v>87092.64</v>
@@ -9882,7 +9882,7 @@
         <v>2291653.96066667</v>
       </c>
       <c r="G327">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H327">
         <v>47955.45</v>
@@ -9911,7 +9911,7 @@
         <v>2218066.94066667</v>
       </c>
       <c r="G328">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H328">
         <v>43367.04</v>
@@ -9940,7 +9940,7 @@
         <v>2159579.79033334</v>
       </c>
       <c r="G329">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H329">
         <v>44419.91</v>
@@ -9969,7 +9969,7 @@
         <v>2114999.51066667</v>
       </c>
       <c r="G330">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H330">
         <v>37917.66</v>
@@ -9998,7 +9998,7 @@
         <v>2051227.92533334</v>
       </c>
       <c r="G331">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H331">
         <v>53152.27</v>
@@ -10027,7 +10027,7 @@
         <v>2067784.77633334</v>
       </c>
       <c r="G332">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H332">
         <v>43697.3</v>
@@ -10056,7 +10056,7 @@
         <v>2074847.893</v>
       </c>
       <c r="G333">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H333">
         <v>51491.13</v>
@@ -10085,7 +10085,7 @@
         <v>2032743.81466667</v>
       </c>
       <c r="G334">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H334">
         <v>52425.07</v>
@@ -10114,7 +10114,7 @@
         <v>1938415.85666667</v>
       </c>
       <c r="G335">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H335">
         <v>48759.69</v>
@@ -10143,7 +10143,7 @@
         <v>1893786.077</v>
       </c>
       <c r="G336">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H336">
         <v>58275.1</v>
@@ -10172,7 +10172,7 @@
         <v>1871085.15833334</v>
       </c>
       <c r="G337">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H337">
         <v>43577.705</v>
@@ -10201,7 +10201,7 @@
         <v>1820575.12033334</v>
       </c>
       <c r="G338">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H338">
         <v>48564.68</v>
@@ -10230,7 +10230,7 @@
         <v>1745900.948</v>
       </c>
       <c r="G339">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H339">
         <v>53410.44</v>
@@ -10259,7 +10259,7 @@
         <v>1669141.24366667</v>
       </c>
       <c r="G340">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H340">
         <v>52766.62</v>
@@ -10288,7 +10288,7 @@
         <v>1236018.917</v>
       </c>
       <c r="G341">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H341">
         <v>40066.89</v>
@@ -10317,7 +10317,7 @@
         <v>1082153.62233334</v>
       </c>
       <c r="G342">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H342">
         <v>61136.265</v>
@@ -10346,7 +10346,7 @@
         <v>996136.424000003</v>
       </c>
       <c r="G343">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H343">
         <v>40068.25</v>
@@ -10375,7 +10375,7 @@
         <v>947484.546000003</v>
       </c>
       <c r="G344">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H344">
         <v>44224.7</v>
@@ -10404,7 +10404,7 @@
         <v>920759.368000003</v>
       </c>
       <c r="G345">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H345">
         <v>45278.905</v>
@@ -10433,7 +10433,7 @@
         <v>839153.77866667</v>
       </c>
       <c r="G346">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H346">
         <v>56067.77</v>
@@ -10462,7 +10462,7 @@
         <v>807214.689333336</v>
       </c>
       <c r="G347">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H347">
         <v>35390.93</v>
@@ -10491,7 +10491,7 @@
         <v>769976.58066667</v>
       </c>
       <c r="G348">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H348">
         <v>40656.74</v>
@@ -10520,7 +10520,7 @@
         <v>710322.123333336</v>
       </c>
       <c r="G349">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H349">
         <v>37185.9</v>
@@ -10549,7 +10549,7 @@
         <v>664836.01566667</v>
       </c>
       <c r="G350">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H350">
         <v>39311.24</v>
@@ -10578,7 +10578,7 @@
         <v>601401.515000003</v>
       </c>
       <c r="G351">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H351">
         <v>38762.935</v>
@@ -10607,7 +10607,7 @@
         <v>534698.19766667</v>
       </c>
       <c r="G352">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H352">
         <v>40377.27</v>
@@ -10636,7 +10636,7 @@
         <v>513809.03666667</v>
       </c>
       <c r="G353">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H353">
         <v>61690.07</v>
@@ -10665,7 +10665,7 @@
         <v>522253.96766667</v>
       </c>
       <c r="G354">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H354">
         <v>42537.69</v>
@@ -10694,7 +10694,7 @@
         <v>543529.22766667</v>
       </c>
       <c r="G355">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H355">
         <v>48759.46</v>
@@ -10723,7 +10723,7 @@
         <v>501600.13666667</v>
       </c>
       <c r="G356">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H356">
         <v>47557.24</v>
@@ -10752,7 +10752,7 @@
         <v>489724.303000003</v>
       </c>
       <c r="G357">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H357">
         <v>34247.545</v>
@@ -10781,7 +10781,7 @@
         <v>480364.204000003</v>
       </c>
       <c r="G358">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H358">
         <v>37487.465</v>
@@ -10810,7 +10810,7 @@
         <v>466599.326000003</v>
       </c>
       <c r="G359">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H359">
         <v>33937.115</v>
@@ -10839,7 +10839,7 @@
         <v>452287.32666667</v>
       </c>
       <c r="G360">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H360">
         <v>34490.69</v>
@@ -10868,7 +10868,7 @@
         <v>462265.48766667</v>
       </c>
       <c r="G361">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H361">
         <v>37266.315</v>
@@ -10897,7 +10897,7 @@
         <v>420359.78866667</v>
       </c>
       <c r="G362">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H362">
         <v>28086.35</v>
@@ -10926,7 +10926,7 @@
         <v>405498.532333337</v>
       </c>
       <c r="G363">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H363">
         <v>32379.59</v>
@@ -10955,7 +10955,7 @@
         <v>404720.871333337</v>
       </c>
       <c r="G364">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H364">
         <v>36187.63</v>
@@ -10984,7 +10984,7 @@
         <v>418046.826000003</v>
       </c>
       <c r="G365">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H365">
         <v>31629.715</v>
@@ -11013,7 +11013,7 @@
         <v>406831.390333337</v>
       </c>
       <c r="G366">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H366">
         <v>33164.85</v>
@@ -11042,7 +11042,7 @@
         <v>429478.622333337</v>
       </c>
       <c r="G367">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H367">
         <v>34104.61</v>
@@ -11071,7 +11071,7 @@
         <v>473051.17666667</v>
       </c>
       <c r="G368">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H368">
         <v>39406.95</v>
@@ -11100,7 +11100,7 @@
         <v>486861.92766667</v>
       </c>
       <c r="G369">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H369">
         <v>41574.2</v>
@@ -11129,7 +11129,7 @@
         <v>497601.20466667</v>
       </c>
       <c r="G370">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H370">
         <v>44916.24</v>
@@ -11158,7 +11158,7 @@
         <v>520260.567333337</v>
       </c>
       <c r="G371">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H371">
         <v>41785.81</v>
@@ -11187,7 +11187,7 @@
         <v>522546.187333337</v>
       </c>
       <c r="G372">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H372">
         <v>46645.52</v>
@@ -11216,7 +11216,7 @@
         <v>591628.08166667</v>
       </c>
       <c r="G373">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H373">
         <v>46813.38</v>
@@ -11245,7 +11245,7 @@
         <v>634228.2750000031</v>
       </c>
       <c r="G374">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H374">
         <v>48599.4</v>
@@ -11274,7 +11274,7 @@
         <v>679026.60066667</v>
       </c>
       <c r="G375">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H375">
         <v>50639.64</v>
@@ -11303,7 +11303,7 @@
         <v>699307.85366667</v>
       </c>
       <c r="G376">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H376">
         <v>53087.73</v>
@@ -11332,7 +11332,7 @@
         <v>712760.196333337</v>
       </c>
       <c r="G377">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H377">
         <v>42841.455</v>
@@ -11361,7 +11361,7 @@
         <v>771414.107333337</v>
       </c>
       <c r="G378">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H378">
         <v>52669.51</v>
@@ -11390,7 +11390,7 @@
         <v>798176.2443333369</v>
       </c>
       <c r="G379">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H379">
         <v>53362.34</v>
@@ -11419,7 +11419,7 @@
         <v>822636.251000004</v>
       </c>
       <c r="G380">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H380">
         <v>47285.06</v>
@@ -11448,7 +11448,7 @@
         <v>868617.661333337</v>
       </c>
       <c r="G381">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H381">
         <v>47397.91</v>
@@ -11477,7 +11477,7 @@
         <v>948986.960333337</v>
       </c>
       <c r="G382">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H382">
         <v>50068.06</v>
@@ -11506,7 +11506,7 @@
         <v>986994.2140000029</v>
       </c>
       <c r="G383">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H383">
         <v>49799.5</v>
@@ -11535,7 +11535,7 @@
         <v>1010816.61366667</v>
       </c>
       <c r="G384">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H384">
         <v>45696.41</v>
@@ -11564,7 +11564,7 @@
         <v>1026950.38766667</v>
       </c>
       <c r="G385">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H385">
         <v>45291.36</v>
@@ -11593,7 +11593,7 @@
         <v>1075019.83833334</v>
       </c>
       <c r="G386">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H386">
         <v>46273.55</v>
@@ -11622,7 +11622,7 @@
         <v>1091395.08933334</v>
       </c>
       <c r="G387">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H387">
         <v>43616.52</v>
@@ -11651,7 +11651,7 @@
         <v>1120771.926</v>
       </c>
       <c r="G388">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H388">
         <v>39263.43</v>
@@ -11680,7 +11680,7 @@
         <v>1138808.95833334</v>
       </c>
       <c r="G389">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H389">
         <v>38161.18</v>
@@ -11709,7 +11709,7 @@
         <v>1179480.42833334</v>
       </c>
       <c r="G390">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H390">
         <v>39073.4</v>
@@ -11738,7 +11738,7 @@
         <v>1189819.65533334</v>
       </c>
       <c r="G391">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H391">
         <v>49492.965</v>
@@ -11767,7 +11767,7 @@
         <v>1211616.35933334</v>
       </c>
       <c r="G392">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H392">
         <v>50562.405</v>
@@ -11796,7 +11796,7 @@
         <v>1242923.97933334</v>
       </c>
       <c r="G393">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H393">
         <v>54808.485</v>
@@ -11825,7 +11825,7 @@
         <v>1252499.37</v>
       </c>
       <c r="G394">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H394">
         <v>49523.76</v>
@@ -11854,7 +11854,7 @@
         <v>1348117.61366667</v>
       </c>
       <c r="G395">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H395">
         <v>55320.48</v>
@@ -11883,7 +11883,7 @@
         <v>1398861.436</v>
       </c>
       <c r="G396">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H396">
         <v>59969.33</v>
@@ -11912,7 +11912,7 @@
         <v>1397348.59466667</v>
       </c>
       <c r="G397">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H397">
         <v>60618.155</v>
@@ -11941,7 +11941,7 @@
         <v>1514392.827</v>
       </c>
       <c r="G398">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H398">
         <v>63786.06</v>
@@ -11970,7 +11970,7 @@
         <v>2524200.738</v>
       </c>
       <c r="G399">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H399">
         <v>63365.54</v>
@@ -11999,7 +11999,7 @@
         <v>3754431.386</v>
       </c>
       <c r="G400">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H400">
         <v>85341.83</v>
@@ -12028,7 +12028,7 @@
         <v>4909821.224</v>
       </c>
       <c r="G401">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H401">
         <v>102791.14</v>
@@ -12057,7 +12057,7 @@
         <v>5068616.50533334</v>
       </c>
       <c r="G402">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H402">
         <v>91652.315</v>
@@ -12086,7 +12086,7 @@
         <v>5402253.006</v>
       </c>
       <c r="G403">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H403">
         <v>112037.23</v>
@@ -12115,7 +12115,7 @@
         <v>6042326.55066667</v>
       </c>
       <c r="G404">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H404">
         <v>113241.42</v>
@@ -12144,7 +12144,7 @@
         <v>7125870.596</v>
       </c>
       <c r="G405">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H405">
         <v>133880.595</v>
@@ -12173,7 +12173,7 @@
         <v>8422875.843666671</v>
       </c>
       <c r="G406">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H406">
         <v>143834.3</v>
@@ -12202,7 +12202,7 @@
         <v>8699042.265000001</v>
       </c>
       <c r="G407">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H407">
         <v>161698.6</v>
@@ -12231,7 +12231,7 @@
         <v>8799478.051999999</v>
       </c>
       <c r="G408">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H408">
         <v>155721.74</v>
@@ -12260,7 +12260,7 @@
         <v>8937603.78166667</v>
       </c>
       <c r="G409">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H409">
         <v>169744.13</v>
@@ -12289,7 +12289,7 @@
         <v>9109027.42533333</v>
       </c>
       <c r="G410">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H410">
         <v>158578.55</v>
@@ -12318,7 +12318,7 @@
         <v>9286526.316333329</v>
       </c>
       <c r="G411">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H411">
         <v>188686.75</v>
@@ -12347,7 +12347,7 @@
         <v>9348695.584666669</v>
       </c>
       <c r="G412">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H412">
         <v>167170.51</v>
@@ -12376,7 +12376,7 @@
         <v>9367746.090333341</v>
       </c>
       <c r="G413">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H413">
         <v>193925.39</v>
@@ -12405,7 +12405,7 @@
         <v>9433792.107666669</v>
       </c>
       <c r="G414">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H414">
         <v>171353.13</v>
@@ -12434,7 +12434,7 @@
         <v>9492315.91</v>
       </c>
       <c r="G415">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H415">
         <v>144412.005</v>
@@ -12463,7 +12463,7 @@
         <v>9537592.243000001</v>
       </c>
       <c r="G416">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H416">
         <v>171700.25</v>
@@ -12492,7 +12492,7 @@
         <v>9612882.888666671</v>
       </c>
       <c r="G417">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H417">
         <v>161443.955</v>
@@ -12521,7 +12521,7 @@
         <v>9729735.937999999</v>
       </c>
       <c r="G418">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H418">
         <v>132952.28</v>
@@ -12550,7 +12550,7 @@
         <v>9902510.404333331</v>
       </c>
       <c r="G419">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H419">
         <v>150116.005</v>
@@ -12579,7 +12579,7 @@
         <v>10187984.8573333</v>
       </c>
       <c r="G420">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H420">
         <v>168743.67</v>
@@ -12608,7 +12608,7 @@
         <v>10391106.401</v>
       </c>
       <c r="G421">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H421">
         <v>184643.975</v>
@@ -12637,7 +12637,7 @@
         <v>10578322.4773333</v>
       </c>
       <c r="G422">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H422">
         <v>172780.02</v>
@@ -12666,7 +12666,7 @@
         <v>13564825.9513333</v>
       </c>
       <c r="G423">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H423">
         <v>230275.31</v>
@@ -12695,7 +12695,7 @@
         <v>14735462.0763333</v>
       </c>
       <c r="G424">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H424">
         <v>264688.285</v>
@@ -12724,7 +12724,7 @@
         <v>15316760.22</v>
       </c>
       <c r="G425">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H425">
         <v>273918.97</v>
@@ -12753,7 +12753,7 @@
         <v>15688194.8713333</v>
       </c>
       <c r="G426">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H426">
         <v>291650.325</v>
@@ -12782,7 +12782,7 @@
         <v>17651333.8986667</v>
       </c>
       <c r="G427">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H427">
         <v>303268.925</v>
@@ -12811,7 +12811,7 @@
         <v>22261068.2066667</v>
       </c>
       <c r="G428">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H428">
         <v>420509.59</v>
@@ -12840,7 +12840,7 @@
         <v>22679491.313</v>
       </c>
       <c r="G429">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H429">
         <v>452216.505</v>
@@ -12869,7 +12869,7 @@
         <v>21809935.5836667</v>
       </c>
       <c r="G430">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H430">
         <v>398230.71</v>
@@ -12898,7 +12898,7 @@
         <v>20844179.1823333</v>
       </c>
       <c r="G431">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H431">
         <v>388965.36</v>
@@ -12927,7 +12927,7 @@
         <v>20871414.3386667</v>
       </c>
       <c r="G432">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H432">
         <v>390841.79</v>
@@ -12956,7 +12956,7 @@
         <v>20795859.517</v>
       </c>
       <c r="G433">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H433">
         <v>366451.71</v>
@@ -12985,7 +12985,7 @@
         <v>20435427.0896667</v>
       </c>
       <c r="G434">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H434">
         <v>391150.75</v>
@@ -13014,7 +13014,7 @@
         <v>19677330.829</v>
       </c>
       <c r="G435">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H435">
         <v>390885.055</v>
@@ -13043,7 +13043,7 @@
         <v>18482029.0993333</v>
       </c>
       <c r="G436">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H436">
         <v>390521.105</v>
@@ -13072,7 +13072,7 @@
         <v>18341249.4106667</v>
       </c>
       <c r="G437">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H437">
         <v>387039.505</v>
@@ -13101,7 +13101,7 @@
         <v>18371476.5173333</v>
       </c>
       <c r="G438">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H438">
         <v>392260.78</v>
@@ -13130,7 +13130,7 @@
         <v>18252804.441</v>
       </c>
       <c r="G439">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H439">
         <v>363561.8</v>
@@ -13159,7 +13159,7 @@
         <v>18107029.65</v>
       </c>
       <c r="G440">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H440">
         <v>313139.44</v>
@@ -13188,7 +13188,7 @@
         <v>17960815.8783333</v>
       </c>
       <c r="G441">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H441">
         <v>327932.89</v>
@@ -13217,7 +13217,7 @@
         <v>18087616.0786667</v>
       </c>
       <c r="G442">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H442">
         <v>310780.1</v>
@@ -13246,7 +13246,7 @@
         <v>18104660.8856667</v>
       </c>
       <c r="G443">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H443">
         <v>358421.085</v>
@@ -13275,7 +13275,7 @@
         <v>18110029.7563333</v>
       </c>
       <c r="G444">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H444">
         <v>287830.68</v>
@@ -13304,7 +13304,7 @@
         <v>18060282.4733333</v>
       </c>
       <c r="G445">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H445">
         <v>305024.275</v>
@@ -13333,7 +13333,7 @@
         <v>18133712.1643333</v>
       </c>
       <c r="G446">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H446">
         <v>295207.945</v>
@@ -13362,7 +13362,7 @@
         <v>19194771.7143333</v>
       </c>
       <c r="G447">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H447">
         <v>378534.71</v>
@@ -13391,7 +13391,7 @@
         <v>19149875.9893333</v>
       </c>
       <c r="G448">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H448">
         <v>376580.175</v>
@@ -13420,7 +13420,7 @@
         <v>18973402.5993333</v>
       </c>
       <c r="G449">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H449">
         <v>316563.38</v>
@@ -13449,7 +13449,7 @@
         <v>18723067.3296667</v>
       </c>
       <c r="G450">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H450">
         <v>349808.63</v>
@@ -13478,7 +13478,7 @@
         <v>18559269.8093333</v>
       </c>
       <c r="G451">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H451">
         <v>330251.505</v>
@@ -13507,7 +13507,7 @@
         <v>18419081.7793333</v>
       </c>
       <c r="G452">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H452">
         <v>298425.65</v>
@@ -13536,7 +13536,7 @@
         <v>15497176.978</v>
       </c>
       <c r="G453">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H453">
         <v>304108.19</v>
@@ -13565,7 +13565,7 @@
         <v>14518170.9846667</v>
       </c>
       <c r="G454">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H454">
         <v>353000.845</v>
@@ -13594,7 +13594,7 @@
         <v>14142566.6996667</v>
       </c>
       <c r="G455">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H455">
         <v>344304.46</v>
@@ -13623,7 +13623,7 @@
         <v>14039278.9216667</v>
       </c>
       <c r="G456">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H456">
         <v>345572.345</v>
@@ -13652,7 +13652,7 @@
         <v>12116038.7053333</v>
       </c>
       <c r="G457">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H457">
         <v>345494.4</v>
@@ -13681,7 +13681,7 @@
         <v>7377853.89</v>
       </c>
       <c r="G458">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H458">
         <v>365818.11</v>
@@ -13710,7 +13710,7 @@
         <v>6089568.69633333</v>
       </c>
       <c r="G459">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H459">
         <v>320615.41</v>
@@ -13739,7 +13739,7 @@
         <v>6009023.02533333</v>
       </c>
       <c r="G460">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H460">
         <v>372762.785</v>
@@ -13768,7 +13768,7 @@
         <v>6329018.058</v>
       </c>
       <c r="G461">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H461">
         <v>357466.27</v>
@@ -13797,7 +13797,7 @@
         <v>6836810.65233333</v>
       </c>
       <c r="G462">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H462">
         <v>419152.47</v>
@@ -13826,7 +13826,7 @@
         <v>6749634.01</v>
       </c>
       <c r="G463">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H463">
         <v>440176.61</v>
@@ -13855,7 +13855,7 @@
         <v>6596717.029</v>
       </c>
       <c r="G464">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H464">
         <v>460242.87</v>
@@ -13884,7 +13884,7 @@
         <v>6503371.96966667</v>
       </c>
       <c r="G465">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H465">
         <v>404952.48</v>
@@ -13913,7 +13913,7 @@
         <v>6608061.62433333</v>
       </c>
       <c r="G466">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H466">
         <v>459459.135</v>
@@ -13942,7 +13942,7 @@
         <v>6528038.04233333</v>
       </c>
       <c r="G467">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H467">
         <v>488869.21</v>
@@ -13971,7 +13971,7 @@
         <v>6412365.281</v>
       </c>
       <c r="G468">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H468">
         <v>441889.58</v>
@@ -14000,7 +14000,7 @@
         <v>6457740.578</v>
       </c>
       <c r="G469">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H469">
         <v>416044.68</v>
@@ -14029,7 +14029,7 @@
         <v>6403956.987</v>
       </c>
       <c r="G470">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H470">
         <v>381206.165</v>
@@ -14058,7 +14058,7 @@
         <v>6379110.364</v>
       </c>
       <c r="G471">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H471">
         <v>389315.24</v>
@@ -14087,7 +14087,7 @@
         <v>6185897.77766667</v>
       </c>
       <c r="G472">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H472">
         <v>383135.965</v>
@@ -14116,7 +14116,7 @@
         <v>6215699.62133333</v>
       </c>
       <c r="G473">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H473">
         <v>420426.545</v>
@@ -14145,7 +14145,7 @@
         <v>6192435.54566667</v>
       </c>
       <c r="G474">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H474">
         <v>396094.99</v>
@@ -14174,7 +14174,7 @@
         <v>6231392.98766667</v>
       </c>
       <c r="G475">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H475">
         <v>418776.56</v>
@@ -14203,7 +14203,7 @@
         <v>6129414.67833333</v>
       </c>
       <c r="G476">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H476">
         <v>444529.445</v>
@@ -14232,7 +14232,7 @@
         <v>5076114.79533333</v>
       </c>
       <c r="G477">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H477">
         <v>404221.75</v>
@@ -14261,7 +14261,7 @@
         <v>5089300.083</v>
       </c>
       <c r="G478">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H478">
         <v>439369.675</v>
@@ -14290,7 +14290,7 @@
         <v>5100489.10666667</v>
       </c>
       <c r="G479">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H479">
         <v>484398.735</v>
@@ -14319,7 +14319,7 @@
         <v>5126325.315</v>
       </c>
       <c r="G480">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H480">
         <v>478181.185</v>
@@ -14348,7 +14348,7 @@
         <v>5219431.36133333</v>
       </c>
       <c r="G481">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H481">
         <v>470434.465</v>
@@ -14377,7 +14377,7 @@
         <v>5291035.68633333</v>
       </c>
       <c r="G482">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H482">
         <v>388174.175</v>
@@ -14406,7 +14406,7 @@
         <v>5306566.53566667</v>
       </c>
       <c r="G483">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H483">
         <v>444674.565</v>
@@ -14435,7 +14435,7 @@
         <v>5344255.86833333</v>
       </c>
       <c r="G484">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H484">
         <v>415798.46</v>
@@ -14464,7 +14464,7 @@
         <v>5128633.67733333</v>
       </c>
       <c r="G485">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H485">
         <v>469452.81</v>
@@ -14493,7 +14493,7 @@
         <v>4918327.50533333</v>
       </c>
       <c r="G486">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H486">
         <v>410636.865</v>
@@ -14522,7 +14522,7 @@
         <v>4976997.08666667</v>
       </c>
       <c r="G487">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H487">
         <v>505655.795</v>
@@ -14551,7 +14551,7 @@
         <v>5102784.935</v>
       </c>
       <c r="G488">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H488">
         <v>451498.585</v>
@@ -14580,7 +14580,7 @@
         <v>22845697.0846667</v>
       </c>
       <c r="G489">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H489">
         <v>422584.54</v>
@@ -14609,7 +14609,7 @@
         <v>22753082.0853333</v>
       </c>
       <c r="G490">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H490">
         <v>473209.44</v>
@@ -14638,7 +14638,7 @@
         <v>22301808.5313333</v>
       </c>
       <c r="G491">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H491">
         <v>441657.23</v>
@@ -14667,7 +14667,7 @@
         <v>21659315.323</v>
       </c>
       <c r="G492">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H492">
         <v>492441.37</v>
@@ -14696,7 +14696,7 @@
         <v>21509410.82</v>
       </c>
       <c r="G493">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H493">
         <v>439073.5</v>
@@ -14725,7 +14725,7 @@
         <v>21393802.4546667</v>
       </c>
       <c r="G494">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H494">
         <v>584356.29</v>
@@ -14754,7 +14754,7 @@
         <v>21193576.852</v>
       </c>
       <c r="G495">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H495">
         <v>465218.79</v>
@@ -14783,7 +14783,7 @@
         <v>21021624.337</v>
       </c>
       <c r="G496">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H496">
         <v>479002.39</v>
@@ -14812,7 +14812,7 @@
         <v>20970053.0666667</v>
       </c>
       <c r="G497">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H497">
         <v>484943.31</v>
@@ -14841,7 +14841,7 @@
         <v>21047564.396</v>
       </c>
       <c r="G498">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H498">
         <v>506725.45</v>
@@ -14870,7 +14870,7 @@
         <v>21037692.059</v>
       </c>
       <c r="G499">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H499">
         <v>511278.26</v>
@@ -14899,7 +14899,7 @@
         <v>21172670.6793333</v>
       </c>
       <c r="G500">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H500">
         <v>518636.01</v>
@@ -14928,7 +14928,7 @@
         <v>21207074.2296667</v>
       </c>
       <c r="G501">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H501">
         <v>409394.72</v>
@@ -14957,7 +14957,7 @@
         <v>21266428.5996667</v>
       </c>
       <c r="G502">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H502">
         <v>410678.18</v>
@@ -14986,7 +14986,7 @@
         <v>21274381.4166667</v>
       </c>
       <c r="G503">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H503">
         <v>418285.315</v>
@@ -15015,7 +15015,7 @@
         <v>21274347.7376667</v>
       </c>
       <c r="G504">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H504">
         <v>401046.1</v>
@@ -15044,7 +15044,7 @@
         <v>21307237.2396667</v>
       </c>
       <c r="G505">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H505">
         <v>412008.11</v>
@@ -15073,7 +15073,7 @@
         <v>21573138.2293333</v>
       </c>
       <c r="G506">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H506">
         <v>404454.46</v>
@@ -15102,7 +15102,7 @@
         <v>21703720.4953333</v>
       </c>
       <c r="G507">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H507">
         <v>483080.02</v>
@@ -15131,7 +15131,7 @@
         <v>21681554.951</v>
       </c>
       <c r="G508">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H508">
         <v>384282.35</v>
@@ -15160,7 +15160,7 @@
         <v>21815052.8543333</v>
       </c>
       <c r="G509">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H509">
         <v>421713.3</v>
@@ -15189,7 +15189,7 @@
         <v>21799530.2656667</v>
       </c>
       <c r="G510">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H510">
         <v>408645.98</v>
@@ -15218,7 +15218,7 @@
         <v>21718060.2463333</v>
       </c>
       <c r="G511">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H511">
         <v>402328.06</v>
@@ -15247,7 +15247,7 @@
         <v>21646361.871</v>
       </c>
       <c r="G512">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H512">
         <v>429517.35</v>
@@ -15276,7 +15276,7 @@
         <v>21621345.16</v>
       </c>
       <c r="G513">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H513">
         <v>394258.195</v>
@@ -15305,7 +15305,7 @@
         <v>21488101.1293333</v>
       </c>
       <c r="G514">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H514">
         <v>521960.465</v>
@@ -15334,7 +15334,7 @@
         <v>21419118.9733333</v>
       </c>
       <c r="G515">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H515">
         <v>395203.17</v>
@@ -15363,7 +15363,7 @@
         <v>21362884.1746667</v>
       </c>
       <c r="G516">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H516">
         <v>390497.62</v>
@@ -15392,7 +15392,7 @@
         <v>21338509.3396667</v>
       </c>
       <c r="G517">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H517">
         <v>397778.77</v>
@@ -15421,7 +15421,7 @@
         <v>21189189.5106667</v>
       </c>
       <c r="G518">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H518">
         <v>390508.865</v>
@@ -15450,7 +15450,7 @@
         <v>3324908.05533332</v>
       </c>
       <c r="G519">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H519">
         <v>393993.49</v>
@@ -15479,7 +15479,7 @@
         <v>3165970.17599999</v>
       </c>
       <c r="G520">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H520">
         <v>552604.3</v>
@@ -15508,7 +15508,7 @@
         <v>3100450.98866665</v>
       </c>
       <c r="G521">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H521">
         <v>395538.975</v>
@@ -15537,7 +15537,7 @@
         <v>3085531.08166665</v>
       </c>
       <c r="G522">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H522">
         <v>370619.78</v>
@@ -15566,7 +15566,7 @@
         <v>3079059.63099999</v>
       </c>
       <c r="G523">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H523">
         <v>402557.06</v>
@@ -15595,7 +15595,7 @@
         <v>3075441.94666665</v>
       </c>
       <c r="G524">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H524">
         <v>391364.89</v>
@@ -15624,7 +15624,7 @@
         <v>3304496.93466665</v>
       </c>
       <c r="G525">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H525">
         <v>339137.79</v>
@@ -15653,7 +15653,7 @@
         <v>3362747.03899999</v>
       </c>
       <c r="G526">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H526">
         <v>303274.56</v>
@@ -15682,7 +15682,7 @@
         <v>3499722.83233332</v>
       </c>
       <c r="G527">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H527">
         <v>359730.04</v>
@@ -15711,7 +15711,7 @@
         <v>3502952.15199999</v>
       </c>
       <c r="G528">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H528">
         <v>323847.23</v>
@@ -15740,7 +15740,7 @@
         <v>3501711.26266665</v>
       </c>
       <c r="G529">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H529">
         <v>349714.5</v>
@@ -15769,7 +15769,7 @@
         <v>3436720.97066665</v>
       </c>
       <c r="G530">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H530">
         <v>341488.97</v>
@@ -15798,7 +15798,7 @@
         <v>3844684.09699999</v>
       </c>
       <c r="G531">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H531">
         <v>356760.315</v>
@@ -15827,7 +15827,7 @@
         <v>3799531.25933332</v>
       </c>
       <c r="G532">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H532">
         <v>296526.46</v>
@@ -15856,7 +15856,7 @@
         <v>3746109.22433332</v>
       </c>
       <c r="G533">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H533">
         <v>321507.995</v>
@@ -15885,7 +15885,7 @@
         <v>3705924.54199999</v>
       </c>
       <c r="G534">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H534">
         <v>287931.44</v>
@@ -15914,7 +15914,7 @@
         <v>3722485.76166665</v>
       </c>
       <c r="G535">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H535">
         <v>272879.66</v>
@@ -15943,7 +15943,7 @@
         <v>3448475.91999999</v>
       </c>
       <c r="G536">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H536">
         <v>266628.8</v>
@@ -15972,7 +15972,7 @@
         <v>3306701.00033332</v>
       </c>
       <c r="G537">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H537">
         <v>253340.94</v>
@@ -16001,7 +16001,7 @@
         <v>3292632.53999999</v>
       </c>
       <c r="G538">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H538">
         <v>256545.93</v>
@@ -16030,7 +16030,7 @@
         <v>3256994.66433332</v>
       </c>
       <c r="G539">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H539">
         <v>291282.89</v>
@@ -16059,7 +16059,7 @@
         <v>3178557.97766666</v>
       </c>
       <c r="G540">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H540">
         <v>237563.84</v>
@@ -16088,7 +16088,7 @@
         <v>3123716.25766666</v>
       </c>
       <c r="G541">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H541">
         <v>256741.01</v>
@@ -16117,7 +16117,7 @@
         <v>3066136.13666666</v>
       </c>
       <c r="G542">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H542">
         <v>239838.38</v>
@@ -16146,7 +16146,7 @@
         <v>3094529.66999999</v>
       </c>
       <c r="G543">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H543">
         <v>300705.19</v>
@@ -16175,7 +16175,7 @@
         <v>3085281.73433332</v>
       </c>
       <c r="G544">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H544">
         <v>236483.14</v>
@@ -16204,7 +16204,7 @@
         <v>3146393.52766666</v>
       </c>
       <c r="G545">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H545">
         <v>230026.12</v>
@@ -16233,7 +16233,7 @@
         <v>3779268.15966666</v>
       </c>
       <c r="G546">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H546">
         <v>278533.92</v>
@@ -16262,7 +16262,7 @@
         <v>3826513.71366666</v>
       </c>
       <c r="G547">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H547">
         <v>308468.85</v>
@@ -16291,7 +16291,7 @@
         <v>3949670.07266666</v>
       </c>
       <c r="G548">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H548">
         <v>284537.79</v>
@@ -16320,7 +16320,7 @@
         <v>3949467.62333332</v>
       </c>
       <c r="G549">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H549">
         <v>293249.22</v>
@@ -16349,7 +16349,7 @@
         <v>3959561.84066666</v>
       </c>
       <c r="G550">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H550">
         <v>271607.46</v>
@@ -16378,7 +16378,7 @@
         <v>4005432.84266666</v>
       </c>
       <c r="G551">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H551">
         <v>269563.1</v>
@@ -16407,7 +16407,7 @@
         <v>4126431.83633332</v>
       </c>
       <c r="G552">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H552">
         <v>302597.935</v>
@@ -16436,7 +16436,7 @@
         <v>4295390.67633332</v>
       </c>
       <c r="G553">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H553">
         <v>301501.66</v>
@@ -16465,7 +16465,7 @@
         <v>4393800.69233332</v>
       </c>
       <c r="G554">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H554">
         <v>252556.61</v>
@@ -16494,7 +16494,7 @@
         <v>4211458.65999999</v>
       </c>
       <c r="G555">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H555">
         <v>259516.22</v>
@@ -16523,7 +16523,7 @@
         <v>4159472.44266666</v>
       </c>
       <c r="G556">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H556">
         <v>323253.29</v>
@@ -16552,7 +16552,7 @@
         <v>4024016.96899999</v>
       </c>
       <c r="G557">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H557">
         <v>253531.295</v>
@@ -16581,7 +16581,7 @@
         <v>3902230.32833332</v>
       </c>
       <c r="G558">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H558">
         <v>233846.05</v>
@@ -16610,7 +16610,7 @@
         <v>3946068.92866666</v>
       </c>
       <c r="G559">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H559">
         <v>211611.705</v>
@@ -16639,7 +16639,7 @@
         <v>3914549.59733332</v>
       </c>
       <c r="G560">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H560">
         <v>209872.33</v>
@@ -16668,7 +16668,7 @@
         <v>3464179.43099999</v>
       </c>
       <c r="G561">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H561">
         <v>201564.24</v>
@@ -16697,7 +16697,7 @@
         <v>3378217.71133332</v>
       </c>
       <c r="G562">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H562">
         <v>253230.85</v>
@@ -16726,7 +16726,7 @@
         <v>3381738.92799999</v>
       </c>
       <c r="G563">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H563">
         <v>194393.92</v>
@@ -16755,7 +16755,7 @@
         <v>3377427.74233332</v>
       </c>
       <c r="G564">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H564">
         <v>214168.695</v>
@@ -16784,7 +16784,7 @@
         <v>3282994.21966666</v>
       </c>
       <c r="G565">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H565">
         <v>212488.36</v>
@@ -16813,7 +16813,7 @@
         <v>3218943.25899999</v>
       </c>
       <c r="G566">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H566">
         <v>213601.92</v>
@@ -16842,7 +16842,7 @@
         <v>3158930.00766666</v>
       </c>
       <c r="G567">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H567">
         <v>209487.15</v>
@@ -16871,7 +16871,7 @@
         <v>3134207.26733332</v>
       </c>
       <c r="G568">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H568">
         <v>211592.105</v>
@@ -16900,7 +16900,7 @@
         <v>3026464.72033332</v>
       </c>
       <c r="G569">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H569">
         <v>227502.11</v>
@@ -16929,7 +16929,7 @@
         <v>3039569.62533332</v>
       </c>
       <c r="G570">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H570">
         <v>199658.075</v>
@@ -16958,7 +16958,7 @@
         <v>3061483.87966666</v>
       </c>
       <c r="G571">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H571">
         <v>229058.93</v>
@@ -16987,7 +16987,7 @@
         <v>3111102.22699999</v>
       </c>
       <c r="G572">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H572">
         <v>193834.8</v>
@@ -17016,7 +17016,7 @@
         <v>3130726.02633332</v>
       </c>
       <c r="G573">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H573">
         <v>210501.22</v>
@@ -17045,7 +17045,7 @@
         <v>3085125.90599999</v>
       </c>
       <c r="G574">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H574">
         <v>179362.84</v>
@@ -17074,7 +17074,7 @@
         <v>3104345.94666666</v>
       </c>
       <c r="G575">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H575">
         <v>165205.55</v>
@@ -17103,7 +17103,7 @@
         <v>2576019.21999999</v>
       </c>
       <c r="G576">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H576">
         <v>180761.14</v>
@@ -17132,7 +17132,7 @@
         <v>2490919.91899999</v>
       </c>
       <c r="G577">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H577">
         <v>175070.3</v>
@@ -17161,7 +17161,7 @@
         <v>3030877.78033332</v>
       </c>
       <c r="G578">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H578">
         <v>186248.24</v>
@@ -17190,7 +17190,7 @@
         <v>3309178.77666666</v>
       </c>
       <c r="G579">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H579">
         <v>208590.79</v>
@@ -17219,7 +17219,7 @@
         <v>3326570.00733332</v>
       </c>
       <c r="G580">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H580">
         <v>220058.43</v>
@@ -17248,7 +17248,7 @@
         <v>3578286.97533332</v>
       </c>
       <c r="G581">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H581">
         <v>209620.29</v>
@@ -17277,7 +17277,7 @@
         <v>3513188.85799999</v>
       </c>
       <c r="G582">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H582">
         <v>222819.81</v>
@@ -17306,7 +17306,7 @@
         <v>3437390.04799999</v>
       </c>
       <c r="G583">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H583">
         <v>230317.915</v>
@@ -17335,7 +17335,7 @@
         <v>3633347.47466666</v>
       </c>
       <c r="G584">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H584">
         <v>223055.975</v>
@@ -17364,7 +17364,7 @@
         <v>3615202.96099999</v>
       </c>
       <c r="G585">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H585">
         <v>246848.8</v>
@@ -17393,7 +17393,7 @@
         <v>3675607.26199999</v>
       </c>
       <c r="G586">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H586">
         <v>208968.01</v>
@@ -17422,7 +17422,7 @@
         <v>3697153.31333332</v>
       </c>
       <c r="G587">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H587">
         <v>207681.05</v>
@@ -17451,7 +17451,7 @@
         <v>3701271.19166666</v>
       </c>
       <c r="G588">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H588">
         <v>199671.23</v>
@@ -17480,7 +17480,7 @@
         <v>3630107.06566666</v>
       </c>
       <c r="G589">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H589">
         <v>211311.92</v>
@@ -17509,7 +17509,7 @@
         <v>3622904.08999999</v>
       </c>
       <c r="G590">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H590">
         <v>233312.13</v>
@@ -17538,7 +17538,7 @@
         <v>3676921.68499999</v>
       </c>
       <c r="G591">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H591">
         <v>229219.7</v>
@@ -17567,7 +17567,7 @@
         <v>3734920.10433332</v>
       </c>
       <c r="G592">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H592">
         <v>234509.555</v>
@@ -17596,7 +17596,7 @@
         <v>4010090.06599999</v>
       </c>
       <c r="G593">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H593">
         <v>220402.395</v>
@@ -17625,7 +17625,7 @@
         <v>4003877.74299999</v>
       </c>
       <c r="G594">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H594">
         <v>230766.24</v>
@@ -17654,7 +17654,7 @@
         <v>4001993.10133332</v>
       </c>
       <c r="G595">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H595">
         <v>214199.84</v>
@@ -17683,7 +17683,7 @@
         <v>4866689.44399999</v>
       </c>
       <c r="G596">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H596">
         <v>228949.9</v>
@@ -17712,7 +17712,7 @@
         <v>4995109.61533332</v>
       </c>
       <c r="G597">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H597">
         <v>211813.53</v>
@@ -17741,7 +17741,7 @@
         <v>4972780.65399999</v>
       </c>
       <c r="G598">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H598">
         <v>258120.72</v>
@@ -17770,7 +17770,7 @@
         <v>4969565.59233332</v>
       </c>
       <c r="G599">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H599">
         <v>287935.02</v>
@@ -17799,7 +17799,7 @@
         <v>4948653.64933332</v>
       </c>
       <c r="G600">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H600">
         <v>240916.54</v>
@@ -17828,7 +17828,7 @@
         <v>4916706.75166665</v>
       </c>
       <c r="G601">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H601">
         <v>234704.88</v>
@@ -17857,7 +17857,7 @@
         <v>4867947.96633332</v>
       </c>
       <c r="G602">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H602">
         <v>201382.435</v>
@@ -17886,7 +17886,7 @@
         <v>4749164.22966665</v>
       </c>
       <c r="G603">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H603">
         <v>272317.53</v>
@@ -17915,7 +17915,7 @@
         <v>4708070.66899999</v>
       </c>
       <c r="G604">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H604">
         <v>184425.59</v>
@@ -17944,7 +17944,7 @@
         <v>4618431.14799999</v>
       </c>
       <c r="G605">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H605">
         <v>240872.025</v>
@@ -17973,7 +17973,7 @@
         <v>4470927.12066666</v>
       </c>
       <c r="G606">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H606">
         <v>202582</v>
@@ -18002,7 +18002,7 @@
         <v>4423590.48966666</v>
       </c>
       <c r="G607">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H607">
         <v>195882.72</v>
@@ -18031,7 +18031,7 @@
         <v>3785583.31799999</v>
       </c>
       <c r="G608">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H608">
         <v>161839.09</v>
@@ -18060,7 +18060,7 @@
         <v>3518290.74966665</v>
       </c>
       <c r="G609">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H609">
         <v>184023.72</v>
@@ -18089,7 +18089,7 @@
         <v>3495090.77899999</v>
       </c>
       <c r="G610">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H610">
         <v>216463.545</v>
@@ -18118,7 +18118,7 @@
         <v>3334971.01433332</v>
       </c>
       <c r="G611">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H611">
         <v>175075.65</v>
@@ -18147,7 +18147,7 @@
         <v>3288731.98966666</v>
       </c>
       <c r="G612">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H612">
         <v>199769.895</v>
@@ -18176,7 +18176,7 @@
         <v>3134309.63099999</v>
       </c>
       <c r="G613">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H613">
         <v>216100.025</v>
@@ -18205,7 +18205,7 @@
         <v>2862760.69099999</v>
       </c>
       <c r="G614">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H614">
         <v>205013.02</v>
@@ -18234,7 +18234,7 @@
         <v>2796545.35033332</v>
       </c>
       <c r="G615">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H615">
         <v>206758.81</v>
@@ -18263,7 +18263,7 @@
         <v>2689955.47666665</v>
       </c>
       <c r="G616">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H616">
         <v>200535.41</v>
@@ -18292,7 +18292,7 @@
         <v>2652639.74799999</v>
       </c>
       <c r="G617">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H617">
         <v>179932.72</v>
@@ -18321,7 +18321,7 @@
         <v>2615672.09999999</v>
       </c>
       <c r="G618">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H618">
         <v>190864.56</v>
@@ -18350,7 +18350,7 @@
         <v>2553176.50433332</v>
       </c>
       <c r="G619">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H619">
         <v>182854.68</v>
@@ -18379,7 +18379,7 @@
         <v>2538134.37533332</v>
       </c>
       <c r="G620">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H620">
         <v>181211.98</v>
@@ -18408,7 +18408,7 @@
         <v>2538347.81433332</v>
       </c>
       <c r="G621">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H621">
         <v>183831.93</v>
@@ -18437,7 +18437,7 @@
         <v>2502498.80533332</v>
       </c>
       <c r="G622">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H622">
         <v>180429.55</v>
@@ -18466,7 +18466,7 @@
         <v>2517146.32666665</v>
       </c>
       <c r="G623">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H623">
         <v>191630.44</v>
@@ -18495,7 +18495,7 @@
         <v>2811685.14933332</v>
       </c>
       <c r="G624">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H624">
         <v>213621.435</v>
@@ -18524,7 +18524,7 @@
         <v>2800238.91433332</v>
       </c>
       <c r="G625">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H625">
         <v>184455.715</v>
@@ -18553,7 +18553,7 @@
         <v>1959507.45199999</v>
       </c>
       <c r="G626">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H626">
         <v>191366.71</v>
@@ -18582,7 +18582,7 @@
         <v>1815303.03466665</v>
       </c>
       <c r="G627">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H627">
         <v>197681.5</v>
@@ -18611,7 +18611,7 @@
         <v>1805547.82633332</v>
       </c>
       <c r="G628">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H628">
         <v>179103.315</v>
@@ -18640,7 +18640,7 @@
         <v>1901520.46999999</v>
       </c>
       <c r="G629">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H629">
         <v>189949.83</v>
@@ -18669,7 +18669,7 @@
         <v>2087538.47066665</v>
       </c>
       <c r="G630">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H630">
         <v>207263.06</v>
@@ -18698,7 +18698,7 @@
         <v>2276145.73699999</v>
       </c>
       <c r="G631">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H631">
         <v>231302.765</v>
@@ -18727,7 +18727,7 @@
         <v>2335613.17066666</v>
       </c>
       <c r="G632">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H632">
         <v>210833.21</v>
@@ -18756,7 +18756,7 @@
         <v>2390782.85833332</v>
       </c>
       <c r="G633">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H633">
         <v>211935.39</v>
@@ -18785,7 +18785,7 @@
         <v>2403297.43566666</v>
       </c>
       <c r="G634">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H634">
         <v>222457.455</v>
@@ -18814,7 +18814,7 @@
         <v>2400171.82133332</v>
       </c>
       <c r="G635">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H635">
         <v>215176.91</v>
@@ -18843,7 +18843,7 @@
         <v>2452223.14766666</v>
       </c>
       <c r="G636">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H636">
         <v>246441.09</v>
@@ -18872,7 +18872,7 @@
         <v>2433479.77599999</v>
       </c>
       <c r="G637">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H637">
         <v>240756.96</v>
@@ -18901,7 +18901,7 @@
         <v>2397533.16766666</v>
       </c>
       <c r="G638">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H638">
         <v>227915.47</v>
@@ -18930,7 +18930,7 @@
         <v>2370441.67933332</v>
       </c>
       <c r="G639">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H639">
         <v>225141.25</v>
@@ -18959,7 +18959,7 @@
         <v>2398404.03699999</v>
       </c>
       <c r="G640">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H640">
         <v>269163.52</v>
@@ -18988,7 +18988,7 @@
         <v>2258956.35833332</v>
       </c>
       <c r="G641">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H641">
         <v>731693.75</v>
@@ -19017,7 +19017,7 @@
         <v>2257434.04999999</v>
       </c>
       <c r="G642">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H642">
         <v>242448.965</v>
@@ -19046,7 +19046,7 @@
         <v>2244741.18999999</v>
       </c>
       <c r="G643">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H643">
         <v>235830.655</v>
@@ -19075,7 +19075,7 @@
         <v>2201623.94866666</v>
       </c>
       <c r="G644">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H644">
         <v>240783.09</v>
@@ -19104,7 +19104,7 @@
         <v>2297449.17466666</v>
       </c>
       <c r="G645">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H645">
         <v>244810.245</v>
@@ -19133,7 +19133,7 @@
         <v>2365395.21999999</v>
       </c>
       <c r="G646">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H646">
         <v>243117.005</v>
@@ -19162,7 +19162,7 @@
         <v>2375988.93733332</v>
       </c>
       <c r="G647">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H647">
         <v>280141.42</v>
@@ -19191,7 +19191,7 @@
         <v>2412203.19799999</v>
       </c>
       <c r="G648">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H648">
         <v>239447.32</v>
@@ -19220,7 +19220,7 @@
         <v>2414622.44699999</v>
       </c>
       <c r="G649">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H649">
         <v>255432.15</v>
@@ -19249,7 +19249,7 @@
         <v>2394551.00966666</v>
       </c>
       <c r="G650">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H650">
         <v>215424.99</v>
@@ -19278,7 +19278,7 @@
         <v>2307541.30099999</v>
       </c>
       <c r="G651">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H651">
         <v>216910.79</v>
@@ -19307,7 +19307,7 @@
         <v>2291094.76399999</v>
       </c>
       <c r="G652">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H652">
         <v>212158.525</v>
@@ -19336,7 +19336,7 @@
         <v>1971986.58533332</v>
       </c>
       <c r="G653">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H653">
         <v>216678.58</v>
@@ -19365,7 +19365,7 @@
         <v>1662502.73399999</v>
       </c>
       <c r="G654">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H654">
         <v>209052.06</v>
@@ -19394,7 +19394,7 @@
         <v>1662708.77133332</v>
       </c>
       <c r="G655">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H655">
         <v>190697.06</v>
@@ -19423,7 +19423,7 @@
         <v>1805260.69499999</v>
       </c>
       <c r="G656">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H656">
         <v>196050.49</v>
@@ -19452,7 +19452,7 @@
         <v>1835560.09233332</v>
       </c>
       <c r="G657">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H657">
         <v>217200.89</v>
@@ -19481,7 +19481,7 @@
         <v>1829773.14033332</v>
       </c>
       <c r="G658">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H658">
         <v>208913.98</v>
@@ -19510,7 +19510,7 @@
         <v>1756001.13733332</v>
       </c>
       <c r="G659">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H659">
         <v>210631.005</v>
@@ -19539,7 +19539,7 @@
         <v>1590071.00899999</v>
       </c>
       <c r="G660">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H660">
         <v>196982.91</v>
@@ -19568,7 +19568,7 @@
         <v>1402874.93666666</v>
       </c>
       <c r="G661">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H661">
         <v>255872.79</v>
@@ -19597,7 +19597,7 @@
         <v>1344522.69366666</v>
       </c>
       <c r="G662">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H662">
         <v>213176.5</v>
@@ -19626,7 +19626,7 @@
         <v>1333363.63399999</v>
       </c>
       <c r="G663">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H663">
         <v>215032.96</v>
@@ -19655,7 +19655,7 @@
         <v>1353211.01233332</v>
       </c>
       <c r="G664">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H664">
         <v>187444.105</v>
@@ -19684,7 +19684,7 @@
         <v>1438035.19333332</v>
       </c>
       <c r="G665">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H665">
         <v>186228.84</v>
@@ -19713,7 +19713,7 @@
         <v>1439438.27599999</v>
       </c>
       <c r="G666">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H666">
         <v>207163.87</v>
@@ -19742,7 +19742,7 @@
         <v>1477617.46866666</v>
       </c>
       <c r="G667">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H667">
         <v>178650.45</v>
@@ -19771,7 +19771,7 @@
         <v>1541406.10999999</v>
       </c>
       <c r="G668">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H668">
         <v>188274.76</v>
@@ -19800,7 +19800,7 @@
         <v>1596819.86366666</v>
       </c>
       <c r="G669">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H669">
         <v>184794.28</v>
@@ -19829,7 +19829,7 @@
         <v>1544707.56699999</v>
       </c>
       <c r="G670">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H670">
         <v>192959.67</v>
@@ -19858,7 +19858,7 @@
         <v>1587146.08733332</v>
       </c>
       <c r="G671">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H671">
         <v>193566.465</v>
@@ -19887,7 +19887,7 @@
         <v>1580864.31699999</v>
       </c>
       <c r="G672">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H672">
         <v>184410.335</v>
@@ -19916,7 +19916,7 @@
         <v>1599996.72733332</v>
       </c>
       <c r="G673">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H673">
         <v>186087.51</v>
@@ -19945,7 +19945,7 @@
         <v>1598137.16766666</v>
       </c>
       <c r="G674">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H674">
         <v>224359.145</v>
@@ -19974,7 +19974,7 @@
         <v>1497491.70399999</v>
       </c>
       <c r="G675">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H675">
         <v>185718.86</v>
@@ -20003,7 +20003,7 @@
         <v>1439879.68733332</v>
       </c>
       <c r="G676">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H676">
         <v>176500.02</v>
@@ -20032,7 +20032,7 @@
         <v>1436085.12699999</v>
       </c>
       <c r="G677">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H677">
         <v>183722.89</v>
@@ -20061,7 +20061,7 @@
         <v>1406469.56666666</v>
       </c>
       <c r="G678">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H678">
         <v>194412.785</v>
@@ -20090,7 +20090,7 @@
         <v>1403174.40999999</v>
       </c>
       <c r="G679">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H679">
         <v>156577.45</v>
@@ -20119,7 +20119,7 @@
         <v>1393932.80166666</v>
       </c>
       <c r="G680">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H680">
         <v>184868.865</v>
@@ -20148,7 +20148,7 @@
         <v>1405740.42199999</v>
       </c>
       <c r="G681">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H681">
         <v>141529.73</v>
@@ -20177,7 +20177,7 @@
         <v>1408541.04899999</v>
       </c>
       <c r="G682">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H682">
         <v>124435.685</v>
@@ -20206,7 +20206,7 @@
         <v>1402683.85399999</v>
       </c>
       <c r="G683">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H683">
         <v>132650.1</v>
@@ -20235,7 +20235,7 @@
         <v>1401521.86533332</v>
       </c>
       <c r="G684">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H684">
         <v>115647.955</v>
@@ -20264,7 +20264,7 @@
         <v>1399198.68966666</v>
       </c>
       <c r="G685">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H685">
         <v>111574.74</v>
@@ -20293,7 +20293,7 @@
         <v>1262293.53466666</v>
       </c>
       <c r="G686">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H686">
         <v>108797.67</v>
@@ -20322,7 +20322,7 @@
         <v>1224042.28999999</v>
       </c>
       <c r="G687">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H687">
         <v>120323.43</v>
@@ -20351,7 +20351,7 @@
         <v>1328430.62933332</v>
       </c>
       <c r="G688">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H688">
         <v>115957.795</v>
@@ -20380,7 +20380,7 @@
         <v>1318410.21266666</v>
       </c>
       <c r="G689">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H689">
         <v>120636.09</v>
@@ -20409,7 +20409,7 @@
         <v>1305523.20199999</v>
       </c>
       <c r="G690">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H690">
         <v>112293.46</v>
@@ -20438,7 +20438,7 @@
         <v>1307548.92933332</v>
       </c>
       <c r="G691">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H691">
         <v>107257.83</v>
@@ -20467,7 +20467,7 @@
         <v>1309112.15499999</v>
       </c>
       <c r="G692">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H692">
         <v>113398.93</v>
@@ -20496,7 +20496,7 @@
         <v>1248377.86033332</v>
       </c>
       <c r="G693">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H693">
         <v>103746.16</v>
@@ -20525,7 +20525,7 @@
         <v>1188543.57833332</v>
       </c>
       <c r="G694">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H694">
         <v>133537.63</v>
@@ -20554,7 +20554,7 @@
         <v>1112426.85399999</v>
       </c>
       <c r="G695">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H695">
         <v>135053.41</v>
@@ -20583,7 +20583,7 @@
         <v>1043545.60333332</v>
       </c>
       <c r="G696">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H696">
         <v>91106.92999999999</v>
@@ -20612,7 +20612,7 @@
         <v>1005551.42766666</v>
       </c>
       <c r="G697">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H697">
         <v>97811.14999999999</v>
@@ -20641,7 +20641,7 @@
         <v>958453.67199999</v>
       </c>
       <c r="G698">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H698">
         <v>89371.065</v>
@@ -20670,7 +20670,7 @@
         <v>924154.001333324</v>
       </c>
       <c r="G699">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H699">
         <v>82546.28999999999</v>
@@ -20699,7 +20699,7 @@
         <v>907635.910333324</v>
       </c>
       <c r="G700">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H700">
         <v>119073.175</v>
@@ -20728,7 +20728,7 @@
         <v>845272.018666657</v>
       </c>
       <c r="G701">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H701">
         <v>133932.61</v>
@@ -20757,7 +20757,7 @@
         <v>819307.273333324</v>
       </c>
       <c r="G702">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H702">
         <v>92162.17</v>
@@ -20786,7 +20786,7 @@
         <v>811906.242333324</v>
       </c>
       <c r="G703">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H703">
         <v>101212.46</v>
@@ -20815,7 +20815,7 @@
         <v>795068.121333324</v>
       </c>
       <c r="G704">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H704">
         <v>100188.28</v>
@@ -20844,7 +20844,7 @@
         <v>776647.267333324</v>
       </c>
       <c r="G705">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H705">
         <v>97773.12</v>
@@ -20873,7 +20873,7 @@
         <v>743887.513999991</v>
       </c>
       <c r="G706">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H706">
         <v>122486.69</v>
@@ -20902,7 +20902,7 @@
         <v>728534.48299999</v>
       </c>
       <c r="G707">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H707">
         <v>95696.22</v>
@@ -20931,7 +20931,7 @@
         <v>718997.38199999</v>
       </c>
       <c r="G708">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H708">
         <v>102712.54</v>
@@ -20960,7 +20960,7 @@
         <v>716679.56899999</v>
       </c>
       <c r="G709">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H709">
         <v>87043.06</v>
@@ -20989,7 +20989,7 @@
         <v>721248.800666657</v>
       </c>
       <c r="G710">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H710">
         <v>97244.91</v>
@@ -21018,7 +21018,7 @@
         <v>709144.416333324</v>
       </c>
       <c r="G711">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H711">
         <v>84619.89</v>
@@ -21047,7 +21047,7 @@
         <v>707774.2523333241</v>
       </c>
       <c r="G712">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H712">
         <v>90034.06</v>
@@ -21076,7 +21076,7 @@
         <v>699670.522333324</v>
       </c>
       <c r="G713">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H713">
         <v>87570.33500000001</v>
@@ -21105,7 +21105,7 @@
         <v>691369.476999991</v>
       </c>
       <c r="G714">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H714">
         <v>93029.53999999999</v>
@@ -21134,7 +21134,7 @@
         <v>684270.4313333241</v>
       </c>
       <c r="G715">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H715">
         <v>76634.86500000001</v>
@@ -21163,7 +21163,7 @@
         <v>671181.145999991</v>
       </c>
       <c r="G716">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H716">
         <v>65470.815</v>
@@ -21192,7 +21192,7 @@
         <v>713723.1146666571</v>
       </c>
       <c r="G717">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H717">
         <v>63363.1</v>
@@ -21221,7 +21221,7 @@
         <v>626665.366999991</v>
       </c>
       <c r="G718">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H718">
         <v>64980.86</v>
@@ -21250,7 +21250,7 @@
         <v>614623.262666657</v>
       </c>
       <c r="G719">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H719">
         <v>56681.2</v>
@@ -21279,7 +21279,7 @@
         <v>633934.2836666571</v>
       </c>
       <c r="G720">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H720">
         <v>56082.53</v>
@@ -21308,7 +21308,7 @@
         <v>834293.928333324</v>
       </c>
       <c r="G721">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H721">
         <v>57940.44</v>
@@ -21337,7 +21337,7 @@
         <v>1076617.98966666</v>
       </c>
       <c r="G722">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H722">
         <v>76838.64999999999</v>
@@ -21366,7 +21366,7 @@
         <v>1177698.87899999</v>
       </c>
       <c r="G723">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H723">
         <v>90548.5</v>
@@ -21395,7 +21395,7 @@
         <v>1217863.12866666</v>
       </c>
       <c r="G724">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H724">
         <v>87423.32000000001</v>
@@ -21424,7 +21424,7 @@
         <v>1212550.83033332</v>
       </c>
       <c r="G725">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H725">
         <v>473907.21</v>
@@ -21453,7 +21453,7 @@
         <v>1216616.85733332</v>
       </c>
       <c r="G726">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H726">
         <v>78831.10000000001</v>
@@ -21482,7 +21482,7 @@
         <v>1224873.22699999</v>
       </c>
       <c r="G727">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H727">
         <v>89720.2</v>
@@ -21511,7 +21511,7 @@
         <v>1236373.81199999</v>
       </c>
       <c r="G728">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H728">
         <v>93008.12</v>
@@ -21540,7 +21540,7 @@
         <v>1254471.72533332</v>
       </c>
       <c r="G729">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H729">
         <v>88704.005</v>
@@ -21569,7 +21569,7 @@
         <v>1256721.30966666</v>
       </c>
       <c r="G730">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H730">
         <v>104613.92</v>
@@ -21598,7 +21598,7 @@
         <v>1282018.83066666</v>
       </c>
       <c r="G731">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H731">
         <v>91035.03</v>
@@ -21627,7 +21627,7 @@
         <v>1280959.24733332</v>
       </c>
       <c r="G732">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H732">
         <v>126496.85</v>
@@ -21656,7 +21656,7 @@
         <v>1260048.90466666</v>
       </c>
       <c r="G733">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H733">
         <v>98146.205</v>
@@ -21685,7 +21685,7 @@
         <v>1261906.71933332</v>
       </c>
       <c r="G734">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H734">
         <v>78686.935</v>
@@ -21714,7 +21714,7 @@
         <v>1258268.49799999</v>
       </c>
       <c r="G735">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H735">
         <v>72958.595</v>
@@ -21743,7 +21743,7 @@
         <v>1266805.11266666</v>
       </c>
       <c r="G736">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H736">
         <v>74816.27</v>
@@ -21772,7 +21772,7 @@
         <v>1262548.89699999</v>
       </c>
       <c r="G737">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H737">
         <v>79051.60000000001</v>
@@ -21801,7 +21801,7 @@
         <v>1273139.90333332</v>
       </c>
       <c r="G738">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H738">
         <v>83060.32000000001</v>
@@ -21830,7 +21830,7 @@
         <v>1284196.04966666</v>
       </c>
       <c r="G739">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H739">
         <v>80257.965</v>
@@ -21859,7 +21859,7 @@
         <v>1280622.75633333</v>
       </c>
       <c r="G740">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H740">
         <v>105537.325</v>
@@ -21888,7 +21888,7 @@
         <v>1302212.19199999</v>
       </c>
       <c r="G741">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H741">
         <v>91741.235</v>
@@ -21917,7 +21917,7 @@
         <v>1459594.26433333</v>
       </c>
       <c r="G742">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H742">
         <v>102126.195</v>
@@ -21946,7 +21946,7 @@
         <v>1527493.58033333</v>
       </c>
       <c r="G743">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H743">
         <v>96172.73</v>
@@ -21975,7 +21975,7 @@
         <v>1553551.65166666</v>
       </c>
       <c r="G744">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H744">
         <v>90812.38</v>
@@ -22004,7 +22004,7 @@
         <v>1664603.00133333</v>
       </c>
       <c r="G745">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H745">
         <v>86323.06</v>
@@ -22033,7 +22033,7 @@
         <v>1688922.80966666</v>
       </c>
       <c r="G746">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H746">
         <v>93455.92999999999</v>
@@ -22062,7 +22062,7 @@
         <v>1688699.65933333</v>
       </c>
       <c r="G747">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H747">
         <v>98783.535</v>
@@ -22091,7 +22091,7 @@
         <v>1774918.02999999</v>
       </c>
       <c r="G748">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H748">
         <v>112731.03</v>
@@ -22120,7 +22120,7 @@
         <v>1895946.90199999</v>
       </c>
       <c r="G749">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H749">
         <v>109602.28</v>
@@ -22149,7 +22149,7 @@
         <v>2067151.47233333</v>
       </c>
       <c r="G750">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H750">
         <v>125033.49</v>
@@ -22178,7 +22178,7 @@
         <v>1904970.42099999</v>
       </c>
       <c r="G751">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H751">
         <v>127681.82</v>
@@ -22207,7 +22207,7 @@
         <v>1641583.47366666</v>
       </c>
       <c r="G752">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H752">
         <v>127798.7</v>
@@ -22236,7 +22236,7 @@
         <v>1568392.07599999</v>
       </c>
       <c r="G753">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H753">
         <v>146052.235</v>
@@ -22265,7 +22265,7 @@
         <v>1527879.67533333</v>
       </c>
       <c r="G754">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H754">
         <v>128315.365</v>
@@ -22294,7 +22294,7 @@
         <v>1505800.81699999</v>
       </c>
       <c r="G755">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H755">
         <v>142724.335</v>
@@ -22323,7 +22323,7 @@
         <v>1502736.87566666</v>
       </c>
       <c r="G756">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H756">
         <v>153639.965</v>
@@ -22352,7 +22352,7 @@
         <v>1482173.07899999</v>
       </c>
       <c r="G757">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H757">
         <v>117841.62</v>
@@ -22381,7 +22381,7 @@
         <v>1459647.42799999</v>
       </c>
       <c r="G758">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H758">
         <v>115295.67</v>
@@ -22410,7 +22410,7 @@
         <v>1408529.57399999</v>
       </c>
       <c r="G759">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H759">
         <v>130991.49</v>
@@ -22439,7 +22439,7 @@
         <v>1404055.14099999</v>
       </c>
       <c r="G760">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H760">
         <v>118283.32</v>
@@ -22468,7 +22468,7 @@
         <v>1390689.80066666</v>
       </c>
       <c r="G761">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H761">
         <v>131111.61</v>
@@ -22497,7 +22497,7 @@
         <v>1382778.04266666</v>
       </c>
       <c r="G762">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H762">
         <v>130048.1</v>
@@ -22526,7 +22526,7 @@
         <v>1400771.39566666</v>
       </c>
       <c r="G763">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H763">
         <v>116461.3</v>
@@ -22555,7 +22555,7 @@
         <v>1451312.95233332</v>
       </c>
       <c r="G764">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H764">
         <v>125993.97</v>
@@ -22584,7 +22584,7 @@
         <v>1444559.22466666</v>
       </c>
       <c r="G765">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H765">
         <v>126211.54</v>
@@ -22613,7 +22613,7 @@
         <v>1476169.35199999</v>
       </c>
       <c r="G766">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H766">
         <v>132270.63</v>
@@ -22642,7 +22642,7 @@
         <v>1510964.56033332</v>
       </c>
       <c r="G767">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H767">
         <v>163622.44</v>
@@ -22671,7 +22671,7 @@
         <v>1514782.90066666</v>
       </c>
       <c r="G768">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H768">
         <v>133543.25</v>
@@ -22700,7 +22700,7 @@
         <v>1571421.75933332</v>
       </c>
       <c r="G769">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H769">
         <v>188789.19</v>
@@ -22729,7 +22729,7 @@
         <v>1590179.61999999</v>
       </c>
       <c r="G770">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H770">
         <v>163117.695</v>
@@ -22758,7 +22758,7 @@
         <v>1561675.27166666</v>
       </c>
       <c r="G771">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H771">
         <v>139234.75</v>
@@ -22787,7 +22787,7 @@
         <v>1420388.16999999</v>
       </c>
       <c r="G772">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H772">
         <v>187119.52</v>
@@ -22816,7 +22816,7 @@
         <v>1368373.10633332</v>
       </c>
       <c r="G773">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H773">
         <v>135883.46</v>
@@ -22845,7 +22845,7 @@
         <v>1375067.10199999</v>
       </c>
       <c r="G774">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H774">
         <v>203366.91</v>
@@ -22874,7 +22874,7 @@
         <v>1281551.94099999</v>
       </c>
       <c r="G775">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H775">
         <v>162863.19</v>
@@ -22903,7 +22903,7 @@
         <v>1273908.60933332</v>
       </c>
       <c r="G776">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H776">
         <v>198198.97</v>
@@ -22932,7 +22932,7 @@
         <v>1235317.32933332</v>
       </c>
       <c r="G777">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H777">
         <v>152815.01</v>
@@ -22961,7 +22961,7 @@
         <v>1141028.39033332</v>
       </c>
       <c r="G778">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H778">
         <v>149466.8</v>
@@ -22990,7 +22990,7 @@
         <v>1010051.59366666</v>
       </c>
       <c r="G779">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H779">
         <v>140787.945</v>
@@ -23019,7 +23019,7 @@
         <v>835165.2799999909</v>
       </c>
       <c r="G780">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H780">
         <v>152055.74</v>
@@ -23048,7 +23048,7 @@
         <v>796786.624666658</v>
       </c>
       <c r="G781">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H781">
         <v>138692.29</v>
@@ -23077,7 +23077,7 @@
         <v>795547.543999991</v>
       </c>
       <c r="G782">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H782">
         <v>109212.49</v>
@@ -23106,7 +23106,7 @@
         <v>768204.914333325</v>
       </c>
       <c r="G783">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H783">
         <v>107639.07</v>
@@ -23135,7 +23135,7 @@
         <v>763489.371999991</v>
       </c>
       <c r="G784">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H784">
         <v>115164.46</v>
@@ -23164,7 +23164,7 @@
         <v>757474.652666658</v>
       </c>
       <c r="G785">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H785">
         <v>105007.09</v>
@@ -23193,7 +23193,7 @@
         <v>757475.271333325</v>
       </c>
       <c r="G786">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H786">
         <v>153649.245</v>
@@ -23222,7 +23222,7 @@
         <v>764997.412333325</v>
       </c>
       <c r="G787">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H787">
         <v>111703.07</v>
@@ -23251,7 +23251,7 @@
         <v>757149.197333325</v>
       </c>
       <c r="G788">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H788">
         <v>127588.49</v>
@@ -23280,7 +23280,7 @@
         <v>754176.433999991</v>
       </c>
       <c r="G789">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H789">
         <v>134854.59</v>
@@ -23309,7 +23309,7 @@
         <v>750525.027999991</v>
       </c>
       <c r="G790">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H790">
         <v>131086.605</v>
@@ -23338,7 +23338,7 @@
         <v>737594.187333325</v>
       </c>
       <c r="G791">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H791">
         <v>103972.81</v>
@@ -23367,7 +23367,7 @@
         <v>724935.941666658</v>
       </c>
       <c r="G792">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H792">
         <v>153808.39</v>
@@ -23396,7 +23396,7 @@
         <v>703825.771333324</v>
       </c>
       <c r="G793">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H793">
         <v>102787.89</v>
@@ -23425,13 +23425,303 @@
         <v>640984.125333325</v>
       </c>
       <c r="G794">
-        <v>2582681477.27</v>
+        <v>2586236028.25</v>
       </c>
       <c r="H794">
         <v>108236.98</v>
       </c>
       <c r="I794">
         <v>108236.98</v>
+      </c>
+    </row>
+    <row r="795" spans="1:9">
+      <c r="A795" s="2">
+        <v>44805</v>
+      </c>
+      <c r="B795">
+        <v>1</v>
+      </c>
+      <c r="C795">
+        <v>3.866</v>
+      </c>
+      <c r="D795">
+        <v>14638</v>
+      </c>
+      <c r="E795">
+        <v>109698.56</v>
+      </c>
+      <c r="F795">
+        <v>636226.641333325</v>
+      </c>
+      <c r="G795">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H795">
+        <v>109698.56</v>
+      </c>
+      <c r="I795">
+        <v>109698.56</v>
+      </c>
+    </row>
+    <row r="796" spans="1:9">
+      <c r="A796" s="2">
+        <v>44807</v>
+      </c>
+      <c r="B796">
+        <v>3</v>
+      </c>
+      <c r="C796">
+        <v>3.633</v>
+      </c>
+      <c r="D796">
+        <v>14641</v>
+      </c>
+      <c r="E796">
+        <v>385990.76</v>
+      </c>
+      <c r="F796">
+        <v>604863.368333325</v>
+      </c>
+      <c r="G796">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H796">
+        <v>122462.93</v>
+      </c>
+      <c r="I796">
+        <v>108511.46</v>
+      </c>
+    </row>
+    <row r="797" spans="1:9">
+      <c r="A797" s="2">
+        <v>44808</v>
+      </c>
+      <c r="B797">
+        <v>1</v>
+      </c>
+      <c r="C797">
+        <v>3.466</v>
+      </c>
+      <c r="D797">
+        <v>14642</v>
+      </c>
+      <c r="E797">
+        <v>110289.43</v>
+      </c>
+      <c r="F797">
+        <v>568474.367666658</v>
+      </c>
+      <c r="G797">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H797">
+        <v>110289.43</v>
+      </c>
+      <c r="I797">
+        <v>110289.43</v>
+      </c>
+    </row>
+    <row r="798" spans="1:9">
+      <c r="A798" s="2">
+        <v>44810</v>
+      </c>
+      <c r="B798">
+        <v>4</v>
+      </c>
+      <c r="C798">
+        <v>3.466</v>
+      </c>
+      <c r="D798">
+        <v>14646</v>
+      </c>
+      <c r="E798">
+        <v>410301.86</v>
+      </c>
+      <c r="F798">
+        <v>564317.998333325</v>
+      </c>
+      <c r="G798">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H798">
+        <v>102715.67</v>
+      </c>
+      <c r="I798">
+        <v>99935.83</v>
+      </c>
+    </row>
+    <row r="799" spans="1:9">
+      <c r="A799" s="2">
+        <v>44811</v>
+      </c>
+      <c r="B799">
+        <v>5</v>
+      </c>
+      <c r="C799">
+        <v>3.266</v>
+      </c>
+      <c r="D799">
+        <v>14651</v>
+      </c>
+      <c r="E799">
+        <v>560970.48</v>
+      </c>
+      <c r="F799">
+        <v>512420.573999991</v>
+      </c>
+      <c r="G799">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H799">
+        <v>106385.72</v>
+      </c>
+      <c r="I799">
+        <v>102026.38</v>
+      </c>
+    </row>
+    <row r="800" spans="1:9">
+      <c r="A800" s="2">
+        <v>44812</v>
+      </c>
+      <c r="B800">
+        <v>1</v>
+      </c>
+      <c r="C800">
+        <v>3.1</v>
+      </c>
+      <c r="D800">
+        <v>14652</v>
+      </c>
+      <c r="E800">
+        <v>114543.52</v>
+      </c>
+      <c r="F800">
+        <v>484160.301333325</v>
+      </c>
+      <c r="G800">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H800">
+        <v>114543.52</v>
+      </c>
+      <c r="I800">
+        <v>114543.52</v>
+      </c>
+    </row>
+    <row r="801" spans="1:9">
+      <c r="A801" s="2">
+        <v>44813</v>
+      </c>
+      <c r="B801">
+        <v>6</v>
+      </c>
+      <c r="C801">
+        <v>3.2</v>
+      </c>
+      <c r="D801">
+        <v>14658</v>
+      </c>
+      <c r="E801">
+        <v>664333.1</v>
+      </c>
+      <c r="F801">
+        <v>491614.832999991</v>
+      </c>
+      <c r="G801">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H801">
+        <v>108387.225</v>
+      </c>
+      <c r="I801">
+        <v>104382.24</v>
+      </c>
+    </row>
+    <row r="802" spans="1:9">
+      <c r="A802" s="2">
+        <v>44815</v>
+      </c>
+      <c r="B802">
+        <v>3</v>
+      </c>
+      <c r="C802">
+        <v>3.133</v>
+      </c>
+      <c r="D802">
+        <v>14661</v>
+      </c>
+      <c r="E802">
+        <v>348738.17</v>
+      </c>
+      <c r="F802">
+        <v>471570.103333325</v>
+      </c>
+      <c r="G802">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H802">
+        <v>117638.02</v>
+      </c>
+      <c r="I802">
+        <v>112429</v>
+      </c>
+    </row>
+    <row r="803" spans="1:9">
+      <c r="A803" s="2">
+        <v>44816</v>
+      </c>
+      <c r="B803">
+        <v>1</v>
+      </c>
+      <c r="C803">
+        <v>2.933</v>
+      </c>
+      <c r="D803">
+        <v>14662</v>
+      </c>
+      <c r="E803">
+        <v>106373.98</v>
+      </c>
+      <c r="F803">
+        <v>435061.878333325</v>
+      </c>
+      <c r="G803">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H803">
+        <v>106373.98</v>
+      </c>
+      <c r="I803">
+        <v>106373.98</v>
+      </c>
+    </row>
+    <row r="804" spans="1:9">
+      <c r="A804" s="2">
+        <v>44817</v>
+      </c>
+      <c r="B804">
+        <v>4</v>
+      </c>
+      <c r="C804">
+        <v>2.833</v>
+      </c>
+      <c r="D804">
+        <v>14666</v>
+      </c>
+      <c r="E804">
+        <v>743311.12</v>
+      </c>
+      <c r="F804">
+        <v>411969.506666658</v>
+      </c>
+      <c r="G804">
+        <v>2586236028.25</v>
+      </c>
+      <c r="H804">
+        <v>116551.53</v>
+      </c>
+      <c r="I804">
+        <v>98775.53999999999</v>
       </c>
     </row>
   </sheetData>
